--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1188803.305898382</v>
+        <v>1188127.978315627</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10963864.64421075</v>
+        <v>10963864.64421076</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681861</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>108.8926439055177</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>95.91264075197996</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>14.49330773019691</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.13813028023975</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="W11" t="n">
         <v>108.8926439055177</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>36.28120274154329</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>18.33977076023192</v>
+        <v>18.33977076023195</v>
       </c>
       <c r="V12" t="n">
-        <v>25.60878921364559</v>
+        <v>25.60878921364562</v>
       </c>
       <c r="W12" t="n">
-        <v>43.68940492399051</v>
+        <v>43.68940492399054</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.17897610810431</v>
+        <v>12.17897610810435</v>
       </c>
       <c r="T13" t="n">
-        <v>21.08161657925135</v>
+        <v>21.08161657925138</v>
       </c>
       <c r="U13" t="n">
-        <v>79.74018931927282</v>
+        <v>79.74018931927284</v>
       </c>
       <c r="V13" t="n">
-        <v>46.63640924092962</v>
+        <v>46.63640924092965</v>
       </c>
       <c r="W13" t="n">
-        <v>79.792635061406</v>
+        <v>79.79263506140603</v>
       </c>
       <c r="X13" t="n">
-        <v>19.84041810629972</v>
+        <v>19.84041810629975</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.44873204175869</v>
+        <v>12.44873204175872</v>
       </c>
     </row>
     <row r="14">
@@ -1607,70 +1607,70 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>45.13813028023983</v>
+      </c>
+      <c r="V14" t="n">
+        <v>50.77451047174017</v>
+      </c>
+      <c r="W14" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>50.77451047174013</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="X14" t="n">
         <v>108.8926439055177</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>45.13813028023984</v>
-      </c>
-      <c r="V14" t="n">
-        <v>108.8926439055177</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>50.65363498024703</v>
       </c>
       <c r="C20" t="n">
-        <v>33.92232066779459</v>
+        <v>33.92232066779462</v>
       </c>
       <c r="D20" t="n">
         <v>23.54195774345038</v>
@@ -2090,7 +2090,7 @@
         <v>50.05526074413945</v>
       </c>
       <c r="F20" t="n">
-        <v>74.23108846939283</v>
+        <v>74.23108846939274</v>
       </c>
       <c r="G20" t="n">
         <v>81.2958470139933</v>
@@ -2558,16 +2558,16 @@
         <v>178.2507559472427</v>
       </c>
       <c r="D26" t="n">
-        <v>167.8703930228985</v>
+        <v>167.8703930228984</v>
       </c>
       <c r="E26" t="n">
-        <v>194.3836960235876</v>
+        <v>194.3836960235875</v>
       </c>
       <c r="F26" t="n">
         <v>218.5595237488409</v>
       </c>
       <c r="G26" t="n">
-        <v>225.6242822934414</v>
+        <v>225.6242822934413</v>
       </c>
       <c r="H26" t="n">
         <v>144.3284352794481</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.824744749948939</v>
+        <v>5.824744749948891</v>
       </c>
       <c r="T26" t="n">
-        <v>32.05890982450651</v>
+        <v>32.05890982450646</v>
       </c>
       <c r="U26" t="n">
-        <v>62.70373237454936</v>
+        <v>62.7037323745493</v>
       </c>
       <c r="V26" t="n">
-        <v>139.7988817908195</v>
+        <v>139.7988817908194</v>
       </c>
       <c r="W26" t="n">
-        <v>161.7957772688547</v>
+        <v>161.7957772688546</v>
       </c>
       <c r="X26" t="n">
-        <v>182.1272593994695</v>
+        <v>182.1272593994694</v>
       </c>
       <c r="Y26" t="n">
         <v>197.9527320195359</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>8.57820164310013</v>
+        <v>8.578201643100074</v>
       </c>
       <c r="U27" t="n">
-        <v>35.90537285454155</v>
+        <v>35.9053728545415</v>
       </c>
       <c r="V27" t="n">
-        <v>43.17439130795523</v>
+        <v>43.17439130795518</v>
       </c>
       <c r="W27" t="n">
-        <v>61.25500701830015</v>
+        <v>61.25500701830009</v>
       </c>
       <c r="X27" t="n">
-        <v>15.72728987677837</v>
+        <v>15.72728987677831</v>
       </c>
       <c r="Y27" t="n">
-        <v>14.93681168688613</v>
+        <v>14.93681168688607</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>29.74457820241395</v>
+        <v>29.7445782024139</v>
       </c>
       <c r="T28" t="n">
-        <v>38.64721867356099</v>
+        <v>38.64721867356094</v>
       </c>
       <c r="U28" t="n">
-        <v>97.30579141358245</v>
+        <v>97.3057914135824</v>
       </c>
       <c r="V28" t="n">
-        <v>64.20201133523926</v>
+        <v>64.20201133523921</v>
       </c>
       <c r="W28" t="n">
-        <v>97.35823715571564</v>
+        <v>97.35823715571559</v>
       </c>
       <c r="X28" t="n">
-        <v>37.40602020060936</v>
+        <v>37.4060202006093</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.01433413606833</v>
+        <v>30.01433413606827</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>178.2507559472427</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8703930228984</v>
+        <v>167.8703930228985</v>
       </c>
       <c r="E29" t="n">
-        <v>194.3836960235875</v>
+        <v>194.3836960235876</v>
       </c>
       <c r="F29" t="n">
         <v>218.5595237488409</v>
       </c>
       <c r="G29" t="n">
-        <v>225.6242822934413</v>
+        <v>225.6242822934414</v>
       </c>
       <c r="H29" t="n">
         <v>144.3284352794481</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.824744749948882</v>
+        <v>5.824744749948948</v>
       </c>
       <c r="T29" t="n">
-        <v>32.05890982450646</v>
+        <v>32.05890982450652</v>
       </c>
       <c r="U29" t="n">
-        <v>62.7037323745493</v>
+        <v>62.70373237454936</v>
       </c>
       <c r="V29" t="n">
-        <v>139.7988817908194</v>
+        <v>139.7988817908195</v>
       </c>
       <c r="W29" t="n">
-        <v>161.7957772688546</v>
+        <v>161.7957772688547</v>
       </c>
       <c r="X29" t="n">
-        <v>182.1272593994694</v>
+        <v>182.1272593994695</v>
       </c>
       <c r="Y29" t="n">
         <v>197.9527320195359</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>8.578201643100073</v>
+        <v>8.578201643100131</v>
       </c>
       <c r="U30" t="n">
-        <v>35.9053728545415</v>
+        <v>35.90537285454155</v>
       </c>
       <c r="V30" t="n">
-        <v>43.17439130795518</v>
+        <v>43.17439130795523</v>
       </c>
       <c r="W30" t="n">
-        <v>61.25500701830009</v>
+        <v>61.25500701830015</v>
       </c>
       <c r="X30" t="n">
-        <v>15.72728987677831</v>
+        <v>15.72728987677837</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.93681168688607</v>
+        <v>14.93681168688613</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7445782024139</v>
+        <v>29.74457820241395</v>
       </c>
       <c r="T31" t="n">
-        <v>38.64721867356093</v>
+        <v>38.64721867356099</v>
       </c>
       <c r="U31" t="n">
-        <v>97.3057914135824</v>
+        <v>97.30579141358245</v>
       </c>
       <c r="V31" t="n">
-        <v>64.20201133523921</v>
+        <v>64.20201133523926</v>
       </c>
       <c r="W31" t="n">
-        <v>97.35823715571559</v>
+        <v>97.35823715571564</v>
       </c>
       <c r="X31" t="n">
-        <v>37.4060202006093</v>
+        <v>37.40602020060936</v>
       </c>
       <c r="Y31" t="n">
-        <v>30.01433413606827</v>
+        <v>30.01433413606833</v>
       </c>
     </row>
     <row r="32">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>8.578201643100101</v>
+        <v>8.578201643100103</v>
       </c>
       <c r="U33" t="n">
         <v>35.90537285454153</v>
@@ -3269,7 +3269,7 @@
         <v>146.1918461227362</v>
       </c>
       <c r="D35" t="n">
-        <v>135.811483198392</v>
+        <v>135.8114831983919</v>
       </c>
       <c r="E35" t="n">
         <v>162.324786199081</v>
@@ -3278,10 +3278,10 @@
         <v>186.5006139243344</v>
       </c>
       <c r="G35" t="n">
-        <v>193.5653724689349</v>
+        <v>193.5653724689348</v>
       </c>
       <c r="H35" t="n">
-        <v>112.2695254549416</v>
+        <v>112.2695254549415</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.64482255004284</v>
+        <v>30.64482255004279</v>
       </c>
       <c r="V35" t="n">
         <v>107.7399719663129</v>
       </c>
       <c r="W35" t="n">
-        <v>129.7368674443482</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X35" t="n">
-        <v>150.068349574963</v>
+        <v>150.0683495749629</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.8938221950294</v>
+        <v>165.8938221950293</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.846463030035042</v>
+        <v>3.846463030034985</v>
       </c>
       <c r="V36" t="n">
-        <v>11.11548148344872</v>
+        <v>11.11548148344866</v>
       </c>
       <c r="W36" t="n">
-        <v>29.19609719379363</v>
+        <v>29.19609719379358</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.588308849054474</v>
+        <v>6.588308849054417</v>
       </c>
       <c r="U37" t="n">
-        <v>65.24688158907594</v>
+        <v>65.24688158907588</v>
       </c>
       <c r="V37" t="n">
-        <v>32.14310151073275</v>
+        <v>32.14310151073269</v>
       </c>
       <c r="W37" t="n">
-        <v>65.29932733120913</v>
+        <v>65.29932733120907</v>
       </c>
       <c r="X37" t="n">
-        <v>5.347110376102847</v>
+        <v>5.34711037610279</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>146.1918461227362</v>
       </c>
       <c r="D38" t="n">
-        <v>135.811483198392</v>
+        <v>135.8114831983919</v>
       </c>
       <c r="E38" t="n">
         <v>162.324786199081</v>
@@ -3515,10 +3515,10 @@
         <v>186.5006139243344</v>
       </c>
       <c r="G38" t="n">
-        <v>193.5653724689349</v>
+        <v>193.5653724689348</v>
       </c>
       <c r="H38" t="n">
-        <v>112.2695254549416</v>
+        <v>112.2695254549415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.64482255004284</v>
+        <v>30.64482255004279</v>
       </c>
       <c r="V38" t="n">
         <v>107.7399719663129</v>
       </c>
       <c r="W38" t="n">
-        <v>129.7368674443482</v>
+        <v>129.7368674443481</v>
       </c>
       <c r="X38" t="n">
-        <v>150.068349574963</v>
+        <v>150.0683495749629</v>
       </c>
       <c r="Y38" t="n">
-        <v>165.8938221950294</v>
+        <v>165.8938221950293</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.846463030035042</v>
+        <v>3.846463030034985</v>
       </c>
       <c r="V39" t="n">
-        <v>11.11548148344872</v>
+        <v>11.11548148344866</v>
       </c>
       <c r="W39" t="n">
-        <v>29.19609719379363</v>
+        <v>29.19609719379358</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.588308849054474</v>
+        <v>6.588308849054417</v>
       </c>
       <c r="U40" t="n">
-        <v>65.24688158907594</v>
+        <v>65.24688158907588</v>
       </c>
       <c r="V40" t="n">
-        <v>32.14310151073275</v>
+        <v>32.14310151073269</v>
       </c>
       <c r="W40" t="n">
-        <v>65.29932733120913</v>
+        <v>65.29932733120907</v>
       </c>
       <c r="X40" t="n">
-        <v>5.347110376102847</v>
+        <v>5.34711037610279</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.5780060205378</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5854364190048</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="D11" t="n">
-        <v>105.5928668174717</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="E11" t="n">
-        <v>105.5928668174717</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="F11" t="n">
-        <v>105.5928668174717</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="G11" t="n">
         <v>8.711411512441419</v>
@@ -5036,55 +5036,55 @@
         <v>8.711411512441419</v>
       </c>
       <c r="I11" t="n">
-        <v>28.71258106161149</v>
+        <v>28.71258106161145</v>
       </c>
       <c r="J11" t="n">
-        <v>136.5162985280741</v>
+        <v>99.88341772116698</v>
       </c>
       <c r="K11" t="n">
-        <v>244.3200159945366</v>
+        <v>154.1588167316725</v>
       </c>
       <c r="L11" t="n">
-        <v>298.4956211227472</v>
+        <v>154.1588167316725</v>
       </c>
       <c r="M11" t="n">
-        <v>298.4956211227472</v>
+        <v>232.0851280207927</v>
       </c>
       <c r="N11" t="n">
-        <v>383.8987047126483</v>
+        <v>232.0851280207927</v>
       </c>
       <c r="O11" t="n">
-        <v>383.8987047126483</v>
+        <v>339.8888454872553</v>
       </c>
       <c r="P11" t="n">
-        <v>435.5705756220709</v>
+        <v>339.8888454872553</v>
       </c>
       <c r="Q11" t="n">
-        <v>435.5705756220709</v>
+        <v>396.9499169719979</v>
       </c>
       <c r="R11" t="n">
-        <v>435.5705756220709</v>
+        <v>423.9471268511539</v>
       </c>
       <c r="S11" t="n">
         <v>435.5705756220709</v>
       </c>
       <c r="T11" t="n">
-        <v>435.5705756220709</v>
+        <v>420.9308708440942</v>
       </c>
       <c r="U11" t="n">
-        <v>435.5705756220709</v>
+        <v>375.336799853953</v>
       </c>
       <c r="V11" t="n">
-        <v>435.5705756220709</v>
+        <v>265.3442302524199</v>
       </c>
       <c r="W11" t="n">
-        <v>325.5780060205378</v>
+        <v>155.3516606508869</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5780060205378</v>
+        <v>155.3516606508869</v>
       </c>
       <c r="Y11" t="n">
-        <v>325.5780060205378</v>
+        <v>118.7039811139745</v>
       </c>
     </row>
     <row r="12">
@@ -5124,37 +5124,37 @@
         <v>8.711411512441419</v>
       </c>
       <c r="L12" t="n">
-        <v>8.711411512441419</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="M12" t="n">
-        <v>8.711411512441419</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="N12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="O12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="P12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="R12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="S12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="T12" t="n">
-        <v>97.23460837897477</v>
+        <v>97.23460837897485</v>
       </c>
       <c r="U12" t="n">
-        <v>78.70958740904354</v>
+        <v>78.70958740904359</v>
       </c>
       <c r="V12" t="n">
-        <v>52.84212355687627</v>
+        <v>52.8421235568763</v>
       </c>
       <c r="W12" t="n">
         <v>8.711411512441419</v>
@@ -5191,55 +5191,55 @@
         <v>8.711411512441419</v>
       </c>
       <c r="H13" t="n">
-        <v>8.711411512441419</v>
+        <v>54.88953272318415</v>
       </c>
       <c r="I13" t="n">
-        <v>8.711411512441419</v>
+        <v>54.88953272318415</v>
       </c>
       <c r="J13" t="n">
-        <v>105.9431642593431</v>
+        <v>54.88953272318415</v>
       </c>
       <c r="K13" t="n">
-        <v>116.9145262189254</v>
+        <v>54.88953272318415</v>
       </c>
       <c r="L13" t="n">
-        <v>186.7577073559108</v>
+        <v>54.88953272318415</v>
       </c>
       <c r="M13" t="n">
-        <v>250.4666356450573</v>
+        <v>77.4287333589823</v>
       </c>
       <c r="N13" t="n">
-        <v>250.4666356450573</v>
+        <v>185.2324508254449</v>
       </c>
       <c r="O13" t="n">
-        <v>250.4666356450573</v>
+        <v>185.2324508254449</v>
       </c>
       <c r="P13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952927</v>
       </c>
       <c r="Q13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952927</v>
       </c>
       <c r="R13" t="n">
-        <v>283.1750240952924</v>
+        <v>283.1750240952927</v>
       </c>
       <c r="S13" t="n">
-        <v>270.8730280265002</v>
+        <v>270.8730280265004</v>
       </c>
       <c r="T13" t="n">
-        <v>249.5784658252362</v>
+        <v>249.5784658252364</v>
       </c>
       <c r="U13" t="n">
-        <v>169.032820048193</v>
+        <v>169.0328200481931</v>
       </c>
       <c r="V13" t="n">
-        <v>121.9253359664459</v>
+        <v>121.925335966446</v>
       </c>
       <c r="W13" t="n">
-        <v>41.3267146922984</v>
+        <v>41.32671469229846</v>
       </c>
       <c r="X13" t="n">
-        <v>21.28588832229868</v>
+        <v>21.28588832229871</v>
       </c>
       <c r="Y13" t="n">
         <v>8.711411512441419</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279.9839350303965</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="C14" t="n">
-        <v>279.9839350303965</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="D14" t="n">
-        <v>169.9913654288635</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="E14" t="n">
-        <v>169.9913654288635</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="F14" t="n">
-        <v>118.7039811139745</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="G14" t="n">
-        <v>118.7039811139745</v>
+        <v>8.711411512441419</v>
       </c>
       <c r="H14" t="n">
         <v>8.711411512441419</v>
       </c>
       <c r="I14" t="n">
-        <v>28.71258106161138</v>
+        <v>28.71258106161136</v>
       </c>
       <c r="J14" t="n">
-        <v>28.71258106161138</v>
+        <v>28.71258106161136</v>
       </c>
       <c r="K14" t="n">
-        <v>82.98798007211687</v>
+        <v>28.71258106161136</v>
       </c>
       <c r="L14" t="n">
-        <v>82.98798007211687</v>
+        <v>82.88818618982174</v>
       </c>
       <c r="M14" t="n">
-        <v>151.1304725401468</v>
+        <v>82.88818618982174</v>
       </c>
       <c r="N14" t="n">
-        <v>221.5692776951474</v>
+        <v>190.6919036562843</v>
       </c>
       <c r="O14" t="n">
-        <v>329.2882910707753</v>
+        <v>298.4956211227469</v>
       </c>
       <c r="P14" t="n">
-        <v>329.2882910707753</v>
+        <v>350.1674920321693</v>
       </c>
       <c r="Q14" t="n">
-        <v>329.2882910707753</v>
+        <v>392.8659915412235</v>
       </c>
       <c r="R14" t="n">
         <v>423.9471268511539</v>
@@ -5312,16 +5312,16 @@
         <v>389.9765046319297</v>
       </c>
       <c r="V14" t="n">
-        <v>279.9839350303965</v>
+        <v>338.6891203170406</v>
       </c>
       <c r="W14" t="n">
-        <v>279.9839350303965</v>
+        <v>228.6965507155076</v>
       </c>
       <c r="X14" t="n">
-        <v>279.9839350303965</v>
+        <v>118.7039811139745</v>
       </c>
       <c r="Y14" t="n">
-        <v>279.9839350303965</v>
+        <v>118.7039811139745</v>
       </c>
     </row>
     <row r="15">
@@ -5337,19 +5337,19 @@
         <v>8.711411512441419</v>
       </c>
       <c r="D15" t="n">
-        <v>8.711411512441419</v>
+        <v>68.29705458129163</v>
       </c>
       <c r="E15" t="n">
-        <v>8.711411512441419</v>
+        <v>68.29705458129163</v>
       </c>
       <c r="F15" t="n">
-        <v>8.711411512441419</v>
+        <v>68.29705458129163</v>
       </c>
       <c r="G15" t="n">
-        <v>8.711411512441419</v>
+        <v>68.29705458129163</v>
       </c>
       <c r="H15" t="n">
-        <v>8.711411512441419</v>
+        <v>97.23460837897511</v>
       </c>
       <c r="I15" t="n">
         <v>97.23460837897511</v>
@@ -5425,37 +5425,37 @@
         <v>67.44347598872356</v>
       </c>
       <c r="G16" t="n">
-        <v>67.44347598872356</v>
+        <v>105.6900526666069</v>
       </c>
       <c r="H16" t="n">
-        <v>67.44347598872356</v>
+        <v>151.8681738773496</v>
       </c>
       <c r="I16" t="n">
-        <v>67.44347598872356</v>
+        <v>151.8681738773496</v>
       </c>
       <c r="J16" t="n">
-        <v>67.44347598872356</v>
+        <v>151.8681738773496</v>
       </c>
       <c r="K16" t="n">
-        <v>67.44347598872356</v>
+        <v>175.3238109270929</v>
       </c>
       <c r="L16" t="n">
-        <v>174.2396468262738</v>
+        <v>175.3238109270929</v>
       </c>
       <c r="M16" t="n">
-        <v>278.9157837563776</v>
+        <v>175.3238109270929</v>
       </c>
       <c r="N16" t="n">
-        <v>278.9157837563776</v>
+        <v>175.3238109270929</v>
       </c>
       <c r="O16" t="n">
-        <v>278.9157837563776</v>
+        <v>240.688600790499</v>
       </c>
       <c r="P16" t="n">
-        <v>278.9157837563776</v>
+        <v>240.688600790499</v>
       </c>
       <c r="Q16" t="n">
-        <v>278.9157837563776</v>
+        <v>240.688600790499</v>
       </c>
       <c r="R16" t="n">
         <v>283.1750240952932</v>
@@ -5492,10 +5492,10 @@
         <v>274.4149212485734</v>
       </c>
       <c r="C17" t="n">
-        <v>240.1499508770637</v>
+        <v>240.1499508770636</v>
       </c>
       <c r="D17" t="n">
-        <v>216.3701955806492</v>
+        <v>216.3701955806491</v>
       </c>
       <c r="E17" t="n">
         <v>165.8093261421245</v>
@@ -5504,49 +5504,49 @@
         <v>90.82842869829324</v>
       </c>
       <c r="G17" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="H17" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="I17" t="n">
         <v>116.515128978904</v>
       </c>
       <c r="J17" t="n">
-        <v>224.3188464453665</v>
+        <v>116.515128978904</v>
       </c>
       <c r="K17" t="n">
-        <v>224.3188464453665</v>
+        <v>139.154684813296</v>
       </c>
       <c r="L17" t="n">
-        <v>224.3188464453665</v>
+        <v>139.154684813296</v>
       </c>
       <c r="M17" t="n">
-        <v>224.3188464453665</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="N17" t="n">
-        <v>224.3188464453665</v>
+        <v>246.9584022797586</v>
       </c>
       <c r="O17" t="n">
-        <v>224.3188464453665</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="P17" t="n">
-        <v>224.3188464453665</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.1225639118291</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="R17" t="n">
-        <v>332.1225639118291</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="S17" t="n">
-        <v>332.1225639118291</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="T17" t="n">
-        <v>431.0863176683285</v>
+        <v>354.7621197462211</v>
       </c>
       <c r="U17" t="n">
-        <v>431.0863176683285</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="V17" t="n">
         <v>435.5705756220709</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="C18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="D18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="E18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="F18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="G18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="H18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="I18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="J18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="K18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="L18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="M18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="N18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="O18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="P18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="R18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="S18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="T18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="U18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="V18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="W18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="X18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="C19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="D19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="E19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="F19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="G19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="H19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="I19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="J19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="K19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="L19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="M19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="N19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="O19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="P19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="R19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="S19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="T19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="U19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="V19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="W19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="X19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.711411512441419</v>
+        <v>8.711411512441417</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.4149212485734</v>
+        <v>274.4149212485733</v>
       </c>
       <c r="C20" t="n">
-        <v>240.1499508770637</v>
+        <v>240.1499508770636</v>
       </c>
       <c r="D20" t="n">
-        <v>216.3701955806492</v>
+        <v>216.3701955806491</v>
       </c>
       <c r="E20" t="n">
-        <v>165.8093261421244</v>
+        <v>165.8093261421243</v>
       </c>
       <c r="F20" t="n">
         <v>90.82842869829324</v>
@@ -5747,19 +5747,19 @@
         <v>8.711411512441419</v>
       </c>
       <c r="I20" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="J20" t="n">
-        <v>8.711411512441419</v>
+        <v>116.515128978904</v>
       </c>
       <c r="K20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="L20" t="n">
-        <v>26.86670939309113</v>
+        <v>116.515128978904</v>
       </c>
       <c r="M20" t="n">
-        <v>134.6704268595537</v>
+        <v>224.3188464453665</v>
       </c>
       <c r="N20" t="n">
         <v>242.4741443260162</v>
@@ -5771,13 +5771,13 @@
         <v>242.4741443260162</v>
       </c>
       <c r="Q20" t="n">
-        <v>242.4741443260162</v>
+        <v>350.2778617924788</v>
       </c>
       <c r="R20" t="n">
-        <v>242.4741443260162</v>
+        <v>350.2778617924788</v>
       </c>
       <c r="S20" t="n">
-        <v>242.4741443260162</v>
+        <v>350.2778617924788</v>
       </c>
       <c r="T20" t="n">
         <v>350.2778617924788</v>
@@ -5789,13 +5789,13 @@
         <v>435.5705756220709</v>
       </c>
       <c r="W20" t="n">
-        <v>417.9267958347917</v>
+        <v>417.9267958347916</v>
       </c>
       <c r="X20" t="n">
-        <v>379.7461654105278</v>
+        <v>379.7461654105276</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5802091074088</v>
+        <v>325.5802091074087</v>
       </c>
     </row>
     <row r="21">
@@ -5987,34 +5987,34 @@
         <v>8.711411512441419</v>
       </c>
       <c r="J23" t="n">
-        <v>8.711411512441419</v>
+        <v>112.1594232226832</v>
       </c>
       <c r="K23" t="n">
-        <v>8.711411512441419</v>
+        <v>112.1594232226832</v>
       </c>
       <c r="L23" t="n">
-        <v>8.711411512441419</v>
+        <v>112.1594232226832</v>
       </c>
       <c r="M23" t="n">
-        <v>8.711411512441419</v>
+        <v>219.9631406891458</v>
       </c>
       <c r="N23" t="n">
-        <v>112.1594232226832</v>
+        <v>219.9631406891458</v>
       </c>
       <c r="O23" t="n">
         <v>219.9631406891458</v>
       </c>
       <c r="P23" t="n">
-        <v>219.9631406891458</v>
+        <v>327.7668581556084</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.9631406891458</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="R23" t="n">
-        <v>219.9631406891458</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="S23" t="n">
-        <v>327.7668581556084</v>
+        <v>435.5705756220709</v>
       </c>
       <c r="T23" t="n">
         <v>435.5705756220709</v>
@@ -6206,13 +6206,13 @@
         <v>1003.789144136167</v>
       </c>
       <c r="D26" t="n">
-        <v>834.2230905776837</v>
+        <v>834.2230905776835</v>
       </c>
       <c r="E26" t="n">
-        <v>637.8759228770901</v>
+        <v>637.87592287709</v>
       </c>
       <c r="F26" t="n">
-        <v>417.1087271711902</v>
+        <v>417.1087271711901</v>
       </c>
       <c r="G26" t="n">
         <v>189.2054117232693</v>
@@ -6221,40 +6221,40 @@
         <v>43.41911346120054</v>
       </c>
       <c r="I26" t="n">
-        <v>43.41911346120054</v>
+        <v>46.03033693700411</v>
       </c>
       <c r="J26" t="n">
-        <v>43.41911346120054</v>
+        <v>273.9131025043604</v>
       </c>
       <c r="K26" t="n">
-        <v>414.0446831816109</v>
+        <v>618.7117200326663</v>
       </c>
       <c r="L26" t="n">
-        <v>712.9483979115357</v>
+        <v>793.4505708193104</v>
       </c>
       <c r="M26" t="n">
-        <v>1039.673082056037</v>
+        <v>1307.022251298194</v>
       </c>
       <c r="N26" t="n">
-        <v>1543.01433451225</v>
+        <v>1623.516507420024</v>
       </c>
       <c r="O26" t="n">
-        <v>1982.589530819206</v>
+        <v>1671.019837098858</v>
       </c>
       <c r="P26" t="n">
-        <v>2161.348409254238</v>
+        <v>1849.778715533889</v>
       </c>
       <c r="Q26" t="n">
-        <v>2161.348409254238</v>
+        <v>2093.686783353015</v>
       </c>
       <c r="R26" t="n">
         <v>2170.955673060027</v>
       </c>
       <c r="S26" t="n">
-        <v>2165.072092504524</v>
+        <v>2165.072092504523</v>
       </c>
       <c r="T26" t="n">
-        <v>2132.689355308053</v>
+        <v>2132.689355308052</v>
       </c>
       <c r="U26" t="n">
         <v>2069.352251899416</v>
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="C27" t="n">
-        <v>66.54770544134206</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="D27" t="n">
-        <v>108.7434024368258</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="E27" t="n">
-        <v>108.7434024368258</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="F27" t="n">
-        <v>108.7434024368258</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="G27" t="n">
-        <v>144.7828437767438</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="H27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="I27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="J27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="K27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="L27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="M27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="N27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="O27" t="n">
-        <v>224.8100976910607</v>
+        <v>117.0975723596092</v>
       </c>
       <c r="P27" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910604</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910604</v>
       </c>
       <c r="R27" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910604</v>
       </c>
       <c r="S27" t="n">
-        <v>224.8100976910607</v>
+        <v>224.8100976910604</v>
       </c>
       <c r="T27" t="n">
-        <v>216.1452475465151</v>
+        <v>216.1452475465148</v>
       </c>
       <c r="U27" t="n">
-        <v>179.8771941580893</v>
+        <v>179.8771941580891</v>
       </c>
       <c r="V27" t="n">
-        <v>136.2666978874275</v>
+        <v>136.2666978874273</v>
       </c>
       <c r="W27" t="n">
-        <v>74.39295342449802</v>
+        <v>74.3929534244979</v>
       </c>
       <c r="X27" t="n">
-        <v>58.50680203381279</v>
+        <v>58.50680203381273</v>
       </c>
       <c r="Y27" t="n">
         <v>43.41911346120054</v>
@@ -6370,61 +6370,61 @@
         <v>43.41911346120054</v>
       </c>
       <c r="F28" t="n">
-        <v>85.56867859987699</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="G28" t="n">
-        <v>106.4253092043939</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4253092043939</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="I28" t="n">
-        <v>106.4253092043939</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J28" t="n">
-        <v>106.4253092043939</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="K28" t="n">
-        <v>109.3195395792434</v>
+        <v>131.3340899267115</v>
       </c>
       <c r="L28" t="n">
-        <v>109.3195395792434</v>
+        <v>344.7693409335601</v>
       </c>
       <c r="M28" t="n">
-        <v>109.3195395792434</v>
+        <v>344.7693409335601</v>
       </c>
       <c r="N28" t="n">
-        <v>109.3195395792434</v>
+        <v>442.0839529735132</v>
       </c>
       <c r="O28" t="n">
-        <v>361.5313257770324</v>
+        <v>442.0839529735132</v>
       </c>
       <c r="P28" t="n">
-        <v>442.0839529735136</v>
+        <v>442.0839529735132</v>
       </c>
       <c r="Q28" t="n">
-        <v>442.0839529735136</v>
+        <v>442.0839529735132</v>
       </c>
       <c r="R28" t="n">
-        <v>442.0839529735136</v>
+        <v>442.0839529735132</v>
       </c>
       <c r="S28" t="n">
-        <v>412.0389244862268</v>
+        <v>412.0389244862265</v>
       </c>
       <c r="T28" t="n">
-        <v>373.0013298664683</v>
+        <v>373.001329866468</v>
       </c>
       <c r="U28" t="n">
-        <v>274.7126516709304</v>
+        <v>274.7126516709302</v>
       </c>
       <c r="V28" t="n">
-        <v>209.8621351706888</v>
+        <v>209.8621351706886</v>
       </c>
       <c r="W28" t="n">
-        <v>111.5204814780467</v>
+        <v>111.5204814780466</v>
       </c>
       <c r="X28" t="n">
-        <v>73.73662268955239</v>
+        <v>73.73662268955233</v>
       </c>
       <c r="Y28" t="n">
         <v>43.41911346120054</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1183.840412769745</v>
+        <v>1183.840412769744</v>
       </c>
       <c r="C29" t="n">
         <v>1003.789144136166</v>
       </c>
       <c r="D29" t="n">
-        <v>834.223090577683</v>
+        <v>834.2230905776827</v>
       </c>
       <c r="E29" t="n">
-        <v>637.8759228770896</v>
+        <v>637.8759228770891</v>
       </c>
       <c r="F29" t="n">
-        <v>417.1087271711897</v>
+        <v>417.1087271711891</v>
       </c>
       <c r="G29" t="n">
         <v>189.2054117232693</v>
@@ -6458,31 +6458,31 @@
         <v>43.41911346120054</v>
       </c>
       <c r="I29" t="n">
-        <v>46.03033693700413</v>
+        <v>43.41911346120054</v>
       </c>
       <c r="J29" t="n">
-        <v>273.9131025043604</v>
+        <v>271.3018790285568</v>
       </c>
       <c r="K29" t="n">
-        <v>644.5386722247707</v>
+        <v>367.8365593058372</v>
       </c>
       <c r="L29" t="n">
-        <v>852.3415865669656</v>
+        <v>647.7992085274419</v>
       </c>
       <c r="M29" t="n">
-        <v>1179.066270711467</v>
+        <v>1161.370889006326</v>
       </c>
       <c r="N29" t="n">
-        <v>1682.40752316768</v>
+        <v>1664.712141462539</v>
       </c>
       <c r="O29" t="n">
-        <v>1935.135723140253</v>
+        <v>1917.440341435112</v>
       </c>
       <c r="P29" t="n">
-        <v>2113.894601575284</v>
+        <v>1917.440341435112</v>
       </c>
       <c r="Q29" t="n">
-        <v>2170.955673060027</v>
+        <v>2161.348409254238</v>
       </c>
       <c r="R29" t="n">
         <v>2170.955673060027</v>
@@ -6497,7 +6497,7 @@
         <v>2069.352251899416</v>
       </c>
       <c r="V29" t="n">
-        <v>1928.141260191518</v>
+        <v>1928.141260191517</v>
       </c>
       <c r="W29" t="n">
         <v>1764.711182142169</v>
@@ -6540,49 +6540,49 @@
         <v>43.41911346120054</v>
       </c>
       <c r="J30" t="n">
-        <v>43.41911346120054</v>
+        <v>132.665448022976</v>
       </c>
       <c r="K30" t="n">
-        <v>139.6519873283129</v>
+        <v>132.665448022976</v>
       </c>
       <c r="L30" t="n">
-        <v>139.6519873283129</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="M30" t="n">
-        <v>139.6519873283129</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="N30" t="n">
-        <v>139.6519873283129</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="O30" t="n">
-        <v>139.6519873283129</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="P30" t="n">
-        <v>224.8100976910604</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.8100976910604</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="R30" t="n">
-        <v>224.8100976910604</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="S30" t="n">
-        <v>224.8100976910604</v>
+        <v>224.8100976910607</v>
       </c>
       <c r="T30" t="n">
-        <v>216.1452475465148</v>
+        <v>216.1452475465151</v>
       </c>
       <c r="U30" t="n">
-        <v>179.8771941580891</v>
+        <v>179.8771941580893</v>
       </c>
       <c r="V30" t="n">
-        <v>136.2666978874273</v>
+        <v>136.2666978874275</v>
       </c>
       <c r="W30" t="n">
-        <v>74.3929534244979</v>
+        <v>74.39295342449802</v>
       </c>
       <c r="X30" t="n">
-        <v>58.50680203381273</v>
+        <v>58.50680203381279</v>
       </c>
       <c r="Y30" t="n">
         <v>43.41911346120054</v>
@@ -6598,70 +6598,70 @@
         <v>43.41911346120054</v>
       </c>
       <c r="C31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="D31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="E31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="F31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="G31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="H31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="I31" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369312</v>
       </c>
       <c r="J31" t="n">
-        <v>43.41911346120054</v>
+        <v>179.0766031331042</v>
       </c>
       <c r="K31" t="n">
-        <v>131.3340899267116</v>
+        <v>179.0766031331042</v>
       </c>
       <c r="L31" t="n">
-        <v>220.7403146908954</v>
+        <v>179.0766031331042</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0265055476328</v>
+        <v>263.309344527824</v>
       </c>
       <c r="N31" t="n">
-        <v>383.0277516339743</v>
+        <v>360.6239565677771</v>
       </c>
       <c r="O31" t="n">
-        <v>383.0277516339743</v>
+        <v>360.6239565677771</v>
       </c>
       <c r="P31" t="n">
-        <v>383.0277516339743</v>
+        <v>441.1765837642583</v>
       </c>
       <c r="Q31" t="n">
-        <v>442.0839529735132</v>
+        <v>442.0839529735136</v>
       </c>
       <c r="R31" t="n">
-        <v>442.0839529735132</v>
+        <v>442.0839529735136</v>
       </c>
       <c r="S31" t="n">
-        <v>412.0389244862265</v>
+        <v>412.0389244862268</v>
       </c>
       <c r="T31" t="n">
-        <v>373.001329866468</v>
+        <v>373.0013298664683</v>
       </c>
       <c r="U31" t="n">
-        <v>274.7126516709302</v>
+        <v>274.7126516709304</v>
       </c>
       <c r="V31" t="n">
-        <v>209.8621351706886</v>
+        <v>209.8621351706888</v>
       </c>
       <c r="W31" t="n">
-        <v>111.5204814780466</v>
+        <v>111.5204814780467</v>
       </c>
       <c r="X31" t="n">
-        <v>73.73662268955233</v>
+        <v>73.73662268955239</v>
       </c>
       <c r="Y31" t="n">
         <v>43.41911346120054</v>
@@ -6695,28 +6695,28 @@
         <v>43.41911346120054</v>
       </c>
       <c r="I32" t="n">
-        <v>46.0303369370041</v>
+        <v>46.03033693700408</v>
       </c>
       <c r="J32" t="n">
-        <v>99.81122752319317</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4367972436035</v>
+        <v>273.9131025043603</v>
       </c>
       <c r="L32" t="n">
-        <v>750.3994464652084</v>
+        <v>740.722748060348</v>
       </c>
       <c r="M32" t="n">
-        <v>1263.971126944092</v>
+        <v>1254.294428539232</v>
       </c>
       <c r="N32" t="n">
-        <v>1313.677378942327</v>
+        <v>1308.713530498914</v>
       </c>
       <c r="O32" t="n">
-        <v>1566.4055789149</v>
+        <v>1748.28872680587</v>
       </c>
       <c r="P32" t="n">
-        <v>1932.011453684315</v>
+        <v>1927.047605240901</v>
       </c>
       <c r="Q32" t="n">
         <v>2170.955673060027</v>
@@ -6759,43 +6759,43 @@
         <v>43.41911346120054</v>
       </c>
       <c r="D33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="E33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="F33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="G33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="H33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="I33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="J33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="K33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="L33" t="n">
-        <v>43.41911346120054</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="M33" t="n">
-        <v>139.5336160388998</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5336160388998</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="O33" t="n">
-        <v>139.5336160388998</v>
+        <v>85.61481045668435</v>
       </c>
       <c r="P33" t="n">
-        <v>139.5336160388998</v>
+        <v>224.8100976910605</v>
       </c>
       <c r="Q33" t="n">
         <v>224.8100976910605</v>
@@ -6835,46 +6835,46 @@
         <v>43.41911346120054</v>
       </c>
       <c r="C34" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369315</v>
       </c>
       <c r="D34" t="n">
-        <v>43.41911346120054</v>
+        <v>64.60292239369315</v>
       </c>
       <c r="E34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="F34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="G34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="H34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="I34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="J34" t="n">
-        <v>84.76123186411627</v>
+        <v>105.9450407966089</v>
       </c>
       <c r="K34" t="n">
-        <v>84.76123186411627</v>
+        <v>303.7633990905741</v>
       </c>
       <c r="L34" t="n">
-        <v>341.4514093354845</v>
+        <v>303.7633990905741</v>
       </c>
       <c r="M34" t="n">
-        <v>428.7376001922219</v>
+        <v>303.7633990905741</v>
       </c>
       <c r="N34" t="n">
-        <v>442.0839529735135</v>
+        <v>303.7633990905741</v>
       </c>
       <c r="O34" t="n">
-        <v>442.0839529735135</v>
+        <v>303.7633990905741</v>
       </c>
       <c r="P34" t="n">
-        <v>442.0839529735135</v>
+        <v>336.4717875408091</v>
       </c>
       <c r="Q34" t="n">
         <v>442.0839529735135</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>980.8325780784764</v>
+        <v>980.8325780784767</v>
       </c>
       <c r="C35" t="n">
-        <v>833.1640466413695</v>
+        <v>833.1640466413697</v>
       </c>
       <c r="D35" t="n">
-        <v>695.9807302793574</v>
+        <v>695.9807302793577</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0162997752351</v>
+        <v>532.0162997752354</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6318412658064</v>
+        <v>343.6318412658068</v>
       </c>
       <c r="G35" t="n">
         <v>148.1112630143567</v>
@@ -6932,34 +6932,34 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I35" t="n">
-        <v>69.05724615082411</v>
+        <v>69.05724615082416</v>
       </c>
       <c r="J35" t="n">
-        <v>154.5764574632746</v>
+        <v>328.6783324444418</v>
       </c>
       <c r="K35" t="n">
-        <v>338.355030849302</v>
+        <v>397.3021061078423</v>
       </c>
       <c r="L35" t="n">
-        <v>452.2119729775384</v>
+        <v>397.3021061078423</v>
       </c>
       <c r="M35" t="n">
-        <v>534.7028400984634</v>
+        <v>826.8099177237366</v>
       </c>
       <c r="N35" t="n">
-        <v>964.2106517143576</v>
+        <v>911.5970975316321</v>
       </c>
       <c r="O35" t="n">
-        <v>1393.718463330252</v>
+        <v>1324.759675035483</v>
       </c>
       <c r="P35" t="n">
-        <v>1459.738708892569</v>
+        <v>1324.759675035483</v>
       </c>
       <c r="Q35" t="n">
-        <v>1735.385097437956</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R35" t="n">
-        <v>1735.385097437956</v>
+        <v>1709.413274014144</v>
       </c>
       <c r="S35" t="n">
         <v>1735.385097437956</v>
@@ -6980,7 +6980,7 @@
         <v>1312.970944371626</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="36">
@@ -7014,43 +7014,43 @@
         <v>34.70770194875913</v>
       </c>
       <c r="J36" t="n">
-        <v>79.31178448136257</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="L36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="M36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="N36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="O36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="P36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="R36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="S36" t="n">
-        <v>79.31178448136257</v>
+        <v>56.06588338177002</v>
       </c>
       <c r="T36" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="U36" t="n">
-        <v>75.42646828940798</v>
+        <v>75.42646828940786</v>
       </c>
       <c r="V36" t="n">
-        <v>64.19870921521735</v>
+        <v>64.19870921521729</v>
       </c>
       <c r="W36" t="n">
         <v>34.70770194875913</v>
@@ -7072,67 +7072,67 @@
         <v>34.70770194875913</v>
       </c>
       <c r="C37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="D37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="G37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="H37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I37" t="n">
-        <v>87.62983160751315</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J37" t="n">
-        <v>92.07180618007861</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K37" t="n">
-        <v>92.07180618007861</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="L37" t="n">
-        <v>92.07180618007861</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="M37" t="n">
-        <v>211.0963177630775</v>
+        <v>38.17911257165002</v>
       </c>
       <c r="N37" t="n">
-        <v>211.0963177630775</v>
+        <v>38.17911257165002</v>
       </c>
       <c r="O37" t="n">
-        <v>211.0963177630775</v>
+        <v>154.2615198053879</v>
       </c>
       <c r="P37" t="n">
-        <v>211.0963177630775</v>
+        <v>154.2615198053879</v>
       </c>
       <c r="Q37" t="n">
-        <v>211.0963177630775</v>
+        <v>154.2615198053879</v>
       </c>
       <c r="R37" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="S37" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="T37" t="n">
-        <v>204.4414603397901</v>
+        <v>204.4414603397899</v>
       </c>
       <c r="U37" t="n">
-        <v>138.5355193407235</v>
+        <v>138.5355193407233</v>
       </c>
       <c r="V37" t="n">
-        <v>106.0677400369531</v>
+        <v>106.0677400369529</v>
       </c>
       <c r="W37" t="n">
-        <v>40.10882354078221</v>
+        <v>40.10882354078215</v>
       </c>
       <c r="X37" t="n">
         <v>34.70770194875913</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>980.8325780784763</v>
+        <v>980.832578078477</v>
       </c>
       <c r="C38" t="n">
-        <v>833.1640466413691</v>
+        <v>833.1640466413697</v>
       </c>
       <c r="D38" t="n">
-        <v>695.980730279357</v>
+        <v>695.9807302793577</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0162997752346</v>
+        <v>532.0162997752354</v>
       </c>
       <c r="F38" t="n">
-        <v>343.6318412658059</v>
+        <v>343.6318412658067</v>
       </c>
       <c r="G38" t="n">
         <v>148.1112630143567</v>
@@ -7169,34 +7169,34 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I38" t="n">
-        <v>34.70770194875913</v>
+        <v>69.05724615082416</v>
       </c>
       <c r="J38" t="n">
-        <v>294.3287882423768</v>
+        <v>328.6783324444418</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9525619057773</v>
+        <v>429.4893662695563</v>
       </c>
       <c r="L38" t="n">
-        <v>792.4603735216715</v>
+        <v>858.9971778854505</v>
       </c>
       <c r="M38" t="n">
-        <v>874.9512406425965</v>
+        <v>1288.504989501345</v>
       </c>
       <c r="N38" t="n">
-        <v>1191.445496764426</v>
+        <v>1288.504989501345</v>
       </c>
       <c r="O38" t="n">
-        <v>1393.718463330252</v>
+        <v>1367.74663990644</v>
       </c>
       <c r="P38" t="n">
-        <v>1459.738708892569</v>
+        <v>1433.766885468757</v>
       </c>
       <c r="Q38" t="n">
-        <v>1735.385097437956</v>
+        <v>1709.413274014144</v>
       </c>
       <c r="R38" t="n">
-        <v>1735.385097437956</v>
+        <v>1709.413274014144</v>
       </c>
       <c r="S38" t="n">
         <v>1735.385097437956</v>
@@ -7208,16 +7208,16 @@
         <v>1704.430731225792</v>
       </c>
       <c r="V38" t="n">
-        <v>1595.602476714364</v>
+        <v>1595.602476714365</v>
       </c>
       <c r="W38" t="n">
-        <v>1464.555135861487</v>
+        <v>1464.555135861488</v>
       </c>
       <c r="X38" t="n">
-        <v>1312.970944371626</v>
+        <v>1312.970944371627</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.401427002909</v>
+        <v>1145.40142700291</v>
       </c>
     </row>
     <row r="39">
@@ -7251,43 +7251,43 @@
         <v>34.70770194875913</v>
       </c>
       <c r="J39" t="n">
-        <v>56.06588338177025</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K39" t="n">
-        <v>56.06588338177025</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="L39" t="n">
-        <v>56.06588338177025</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="M39" t="n">
-        <v>56.06588338177025</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="N39" t="n">
-        <v>56.06588338177025</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="O39" t="n">
-        <v>56.06588338177025</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="P39" t="n">
-        <v>56.06588338177025</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.06588338177025</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="R39" t="n">
-        <v>56.06588338177025</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="S39" t="n">
-        <v>56.06588338177025</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="T39" t="n">
-        <v>79.31178448136257</v>
+        <v>79.31178448136239</v>
       </c>
       <c r="U39" t="n">
-        <v>75.42646828940798</v>
+        <v>75.42646828940786</v>
       </c>
       <c r="V39" t="n">
-        <v>64.19870921521735</v>
+        <v>64.19870921521729</v>
       </c>
       <c r="W39" t="n">
         <v>34.70770194875913</v>
@@ -7327,49 +7327,49 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I40" t="n">
-        <v>89.95177227263224</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="J40" t="n">
-        <v>89.95177227263224</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="K40" t="n">
-        <v>89.95177227263224</v>
+        <v>154.3609991405316</v>
       </c>
       <c r="L40" t="n">
-        <v>211.0963177630775</v>
+        <v>154.3609991405316</v>
       </c>
       <c r="M40" t="n">
-        <v>211.0963177630775</v>
+        <v>154.3609991405316</v>
       </c>
       <c r="N40" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="O40" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="P40" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="Q40" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="R40" t="n">
-        <v>211.0963177630775</v>
+        <v>208.8051294572055</v>
       </c>
       <c r="S40" t="n">
-        <v>211.0963177630775</v>
+        <v>211.0963177630772</v>
       </c>
       <c r="T40" t="n">
-        <v>204.4414603397901</v>
+        <v>204.4414603397899</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5355193407235</v>
+        <v>138.5355193407233</v>
       </c>
       <c r="V40" t="n">
-        <v>106.0677400369531</v>
+        <v>106.0677400369529</v>
       </c>
       <c r="W40" t="n">
-        <v>40.10882354078221</v>
+        <v>40.10882354078215</v>
       </c>
       <c r="X40" t="n">
         <v>34.70770194875913</v>
@@ -7406,28 +7406,28 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I41" t="n">
-        <v>69.05724615082408</v>
+        <v>69.05724615082407</v>
       </c>
       <c r="J41" t="n">
-        <v>154.5764574632746</v>
+        <v>328.6783324444417</v>
       </c>
       <c r="K41" t="n">
-        <v>223.200231126675</v>
+        <v>731.0422228911134</v>
       </c>
       <c r="L41" t="n">
-        <v>459.9680937254218</v>
+        <v>731.0422228911134</v>
       </c>
       <c r="M41" t="n">
-        <v>542.4589608463467</v>
+        <v>1160.550034507008</v>
       </c>
       <c r="N41" t="n">
-        <v>971.9667724622409</v>
+        <v>1314.476812925157</v>
       </c>
       <c r="O41" t="n">
-        <v>1280.994027780331</v>
+        <v>1393.718463330252</v>
       </c>
       <c r="P41" t="n">
-        <v>1678.338223276007</v>
+        <v>1459.738708892569</v>
       </c>
       <c r="Q41" t="n">
         <v>1735.385097437956</v>
@@ -7479,10 +7479,10 @@
         <v>34.70770194875913</v>
       </c>
       <c r="G42" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="H42" t="n">
-        <v>79.31178448136265</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="I42" t="n">
         <v>79.31178448136265</v>
@@ -7549,49 +7549,49 @@
         <v>34.70770194875913</v>
       </c>
       <c r="D43" t="n">
-        <v>105.7775081600293</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="E43" t="n">
-        <v>105.7775081600293</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="F43" t="n">
-        <v>105.7775081600293</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="G43" t="n">
-        <v>105.7775081600293</v>
+        <v>34.70770194875913</v>
       </c>
       <c r="H43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="I43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="J43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="K43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="L43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="M43" t="n">
-        <v>105.7775081600293</v>
+        <v>82.04338499686313</v>
       </c>
       <c r="N43" t="n">
-        <v>193.1486451286573</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="O43" t="n">
-        <v>193.1486451286573</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="P43" t="n">
-        <v>208.805129457206</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="Q43" t="n">
-        <v>208.805129457206</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="R43" t="n">
-        <v>208.805129457206</v>
+        <v>211.0963177630776</v>
       </c>
       <c r="S43" t="n">
         <v>211.0963177630776</v>
@@ -7643,31 +7643,31 @@
         <v>34.70770194875913</v>
       </c>
       <c r="I44" t="n">
-        <v>34.70770194875913</v>
+        <v>69.0572461508241</v>
       </c>
       <c r="J44" t="n">
-        <v>294.3287882423768</v>
+        <v>328.6783324444417</v>
       </c>
       <c r="K44" t="n">
-        <v>589.6981687079053</v>
+        <v>731.0422228911134</v>
       </c>
       <c r="L44" t="n">
-        <v>658.2221484890108</v>
+        <v>1088.407384844052</v>
       </c>
       <c r="M44" t="n">
-        <v>740.7130156099358</v>
+        <v>1170.898251964977</v>
       </c>
       <c r="N44" t="n">
-        <v>825.5001954178314</v>
+        <v>1170.898251964977</v>
       </c>
       <c r="O44" t="n">
-        <v>1255.008007033726</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="P44" t="n">
-        <v>1652.352202529402</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="Q44" t="n">
-        <v>1709.413274014144</v>
+        <v>1600.406063580871</v>
       </c>
       <c r="R44" t="n">
         <v>1709.413274014144</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="C46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="D46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="E46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="F46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="G46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="H46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="I46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="J46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="L46" t="n">
-        <v>34.70770194875913</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="M46" t="n">
-        <v>153.732213531758</v>
+        <v>75.0101644336265</v>
       </c>
       <c r="N46" t="n">
-        <v>153.732213531758</v>
+        <v>204.063097199841</v>
       </c>
       <c r="O46" t="n">
-        <v>153.732213531758</v>
+        <v>204.063097199841</v>
       </c>
       <c r="P46" t="n">
-        <v>153.732213531758</v>
+        <v>211.0963177630775</v>
       </c>
       <c r="Q46" t="n">
         <v>211.0963177630775</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>37.00290990596663</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>54.06900854137065</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M11" t="n">
-        <v>24.19453224854657</v>
+        <v>9.882645273828501</v>
       </c>
       <c r="N11" t="n">
-        <v>15.1154327625257</v>
+        <v>135.1496335886352</v>
       </c>
       <c r="O11" t="n">
-        <v>140.7511784399488</v>
+        <v>43.34388051945709</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8848,22 +8848,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0135169984386</v>
+        <v>45.36698045264649</v>
       </c>
       <c r="L13" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>164.9189229967596</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>90.43675181255534</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>134.4102078264584</v>
+        <v>134.4102078264585</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L14" t="n">
-        <v>151.5771083631706</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>137.469141353252</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>37.74233566814353</v>
       </c>
       <c r="O14" t="n">
-        <v>43.25832083174532</v>
+        <v>43.34388051945714</v>
       </c>
       <c r="P14" t="n">
-        <v>154.1061328265927</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.34507666790174</v>
+        <v>4.125177202802607</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9082,28 +9082,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>7.472608599616795</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>13.93142297124199</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>169.5633330205178</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>434.3676631324684</v>
+        <v>328.0809980466495</v>
       </c>
       <c r="M26" t="n">
         <v>467.4940748325458</v>
@@ -9887,16 +9887,16 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>98.58652704303779</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N27" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,22 +10030,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>31.17326146518662</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>98.4250217880799</v>
+        <v>168.9736896032166</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>169.5633330205178</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>248.9860845197215</v>
       </c>
       <c r="L29" t="n">
-        <v>187.0862402446824</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
         <v>467.4940748325458</v>
@@ -10127,7 +10127,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>220.8075902863009</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.53077703452832</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P30" t="n">
-        <v>165.952102389575</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>33.56961837237549</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>185.6500473458235</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1112290740114</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L32" t="n">
         <v>434.3676631324684</v>
@@ -10358,7 +10358,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>185.3579689403871</v>
+        <v>135.706221674751</v>
       </c>
       <c r="O32" t="n">
         <v>396.0321885132552</v>
@@ -10370,7 +10370,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K33" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>220.5351093306141</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>99.93133320088076</v>
+        <v>111.0135169984386</v>
       </c>
       <c r="L34" t="n">
-        <v>168.9736896032166</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>140.4068258466027</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1112290740114</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>114.1516599326733</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N35" t="n">
-        <v>348.2026583919178</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>353.8042032432314</v>
+        <v>337.2938657563195</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>14.96514506649636</v>
       </c>
       <c r="Q35" t="n">
         <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10741,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>99.93133320088076</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L37" t="n">
-        <v>98.4250217880799</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.0729455560974</v>
       </c>
       <c r="N37" t="n">
-        <v>90.43675181255534</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,19 +10823,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>162.2573411988523</v>
       </c>
       <c r="L38" t="n">
-        <v>434.3676631324684</v>
+        <v>364.6301331664532</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>350.5221661565346</v>
       </c>
       <c r="N38" t="n">
-        <v>454.8408013884635</v>
+        <v>135.1496335886352</v>
       </c>
       <c r="O38" t="n">
-        <v>124.2740567280103</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>28.55084357445141</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>91.5294166336067</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,10 +10981,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
-        <v>169.9433159774155</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>350.5221661565347</v>
       </c>
       <c r="N41" t="n">
-        <v>348.2026583919179</v>
+        <v>153.2144867348689</v>
       </c>
       <c r="O41" t="n">
-        <v>396.0321885132552</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11142,16 +11142,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>77.45191162447881</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11215,28 +11215,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>99.93133320088076</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>178.6904255182403</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>123.1826802691417</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,25 +11297,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>229.035966466796</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>291.7587698705385</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>119.2740008284502</v>
       </c>
       <c r="O44" t="n">
-        <v>353.8042032432314</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11382,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N45" t="n">
-        <v>24.25518466968975</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>79.93380909387048</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11458,22 +11458,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>100.5664701794399</v>
       </c>
       <c r="N46" t="n">
-        <v>90.43675181255534</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.538292754451</v>
       </c>
       <c r="P46" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>177.4164681653855</v>
       </c>
       <c r="C11" t="n">
-        <v>51.79250994741537</v>
+        <v>160.6851538529331</v>
       </c>
       <c r="D11" t="n">
-        <v>41.41214702307113</v>
+        <v>41.41214702307116</v>
       </c>
       <c r="E11" t="n">
-        <v>176.8180939292779</v>
+        <v>176.818093929278</v>
       </c>
       <c r="F11" t="n">
         <v>200.9939216545313</v>
       </c>
       <c r="G11" t="n">
-        <v>112.1460394471518</v>
+        <v>208.0586801991318</v>
       </c>
       <c r="H11" t="n">
         <v>126.7628331851385</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>14.49330773019688</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.13813028023971</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2332796965098</v>
+        <v>13.34063579099211</v>
       </c>
       <c r="W11" t="n">
-        <v>35.33753126902732</v>
+        <v>35.33753126902735</v>
       </c>
       <c r="X11" t="n">
         <v>164.5616573051599</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.3871299252263</v>
+        <v>144.105927183683</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>177.4164681653856</v>
       </c>
       <c r="C14" t="n">
-        <v>160.6851538529332</v>
+        <v>51.79250994741548</v>
       </c>
       <c r="D14" t="n">
-        <v>41.41214702307124</v>
+        <v>150.304790928589</v>
       </c>
       <c r="E14" t="n">
         <v>176.818093929278</v>
       </c>
       <c r="F14" t="n">
-        <v>150.2194111827913</v>
+        <v>200.9939216545314</v>
       </c>
       <c r="G14" t="n">
         <v>208.0586801991319</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87018927962085</v>
+        <v>126.7628331851386</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>13.3406357909922</v>
+        <v>71.45876922476975</v>
       </c>
       <c r="W14" t="n">
-        <v>144.2301751745452</v>
+        <v>35.33753126902744</v>
       </c>
       <c r="X14" t="n">
-        <v>164.56165730516</v>
+        <v>55.66901339964224</v>
       </c>
       <c r="Y14" t="n">
         <v>180.3871299252264</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673584.5028279338</v>
+        <v>673584.5028279334</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880798.5334984612</v>
+        <v>880798.5334984611</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880798.5334984611</v>
+        <v>880798.5334984612</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>826333.9292010149</v>
+        <v>826333.9292010148</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826333.9292010148</v>
+        <v>826333.9292010149</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>670029.0116484857</v>
+        <v>670029.0116484854</v>
       </c>
       <c r="C2" t="n">
         <v>670029.0116484859</v>
@@ -26323,37 +26323,37 @@
         <v>576295.3035428273</v>
       </c>
       <c r="F2" t="n">
-        <v>576295.303542827</v>
+        <v>576295.3035428268</v>
       </c>
       <c r="G2" t="n">
         <v>671483.5121073225</v>
       </c>
       <c r="H2" t="n">
-        <v>671483.5121073226</v>
+        <v>671483.5121073222</v>
       </c>
       <c r="I2" t="n">
-        <v>671483.5121073226</v>
+        <v>671483.5121073223</v>
       </c>
       <c r="J2" t="n">
-        <v>671483.5121073221</v>
+        <v>671483.5121073218</v>
       </c>
       <c r="K2" t="n">
-        <v>671483.5121073222</v>
+        <v>671483.5121073214</v>
       </c>
       <c r="L2" t="n">
         <v>671483.5121073219</v>
       </c>
       <c r="M2" t="n">
-        <v>671483.5121073222</v>
+        <v>671483.5121073221</v>
       </c>
       <c r="N2" t="n">
-        <v>671483.5121073226</v>
+        <v>671483.5121073221</v>
       </c>
       <c r="O2" t="n">
         <v>671483.5121073219</v>
       </c>
       <c r="P2" t="n">
-        <v>671483.5121073222</v>
+        <v>671483.512107322</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>296705.4171615928</v>
+        <v>296705.4171615927</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101410.2665481109</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101410.2665481108</v>
+        <v>101410.2665481109</v>
       </c>
       <c r="M3" t="n">
-        <v>25647.12785960519</v>
+        <v>25647.12785960524</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>49577.20523724911</v>
+        <v>49577.20523724909</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
+        <v>357576.97038701</v>
+      </c>
+      <c r="F4" t="n">
         <v>357576.9703870099</v>
-      </c>
-      <c r="F4" t="n">
-        <v>357576.9703870098</v>
       </c>
       <c r="G4" t="n">
         <v>421960.8835407404</v>
@@ -26439,13 +26439,13 @@
         <v>421960.8835407404</v>
       </c>
       <c r="J4" t="n">
+        <v>430175.9109578565</v>
+      </c>
+      <c r="K4" t="n">
         <v>430175.9109578564</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>430175.9109578565</v>
-      </c>
-      <c r="L4" t="n">
-        <v>430175.9109578564</v>
       </c>
       <c r="M4" t="n">
         <v>426936.3852869387</v>
@@ -26457,7 +26457,7 @@
         <v>426936.3852869387</v>
       </c>
       <c r="P4" t="n">
-        <v>426936.3852869387</v>
+        <v>426936.3852869389</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>37311.38868865698</v>
       </c>
       <c r="J5" t="n">
-        <v>51555.69494420599</v>
+        <v>51555.694944206</v>
       </c>
       <c r="K5" t="n">
-        <v>51555.694944206</v>
+        <v>51555.69494420598</v>
       </c>
       <c r="L5" t="n">
         <v>51555.69494420599</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172849.291012794</v>
+        <v>172844.8834356458</v>
       </c>
       <c r="C6" t="n">
-        <v>172849.2910127943</v>
+        <v>172844.8834356463</v>
       </c>
       <c r="D6" t="n">
-        <v>172849.291012794</v>
+        <v>172844.883435646</v>
       </c>
       <c r="E6" t="n">
-        <v>-104641.648071391</v>
+        <v>-104930.0971882531</v>
       </c>
       <c r="F6" t="n">
-        <v>192063.7690902017</v>
+        <v>191775.3199733392</v>
       </c>
       <c r="G6" t="n">
-        <v>110800.9733298143</v>
+        <v>110800.9733298142</v>
       </c>
       <c r="H6" t="n">
-        <v>212211.2398779253</v>
+        <v>212211.2398779248</v>
       </c>
       <c r="I6" t="n">
-        <v>212211.2398779253</v>
+        <v>212211.239877925</v>
       </c>
       <c r="J6" t="n">
-        <v>26661.42635949642</v>
+        <v>26661.42635949601</v>
       </c>
       <c r="K6" t="n">
-        <v>189751.9062052598</v>
+        <v>189751.906205259</v>
       </c>
       <c r="L6" t="n">
-        <v>88341.63965714863</v>
+        <v>88341.63965714857</v>
       </c>
       <c r="M6" t="n">
-        <v>171269.8162759913</v>
+        <v>171269.8162759912</v>
       </c>
       <c r="N6" t="n">
-        <v>196916.9441355969</v>
+        <v>196916.9441355964</v>
       </c>
       <c r="O6" t="n">
-        <v>147339.738898347</v>
+        <v>147339.7388983471</v>
       </c>
       <c r="P6" t="n">
-        <v>196916.9441355965</v>
+        <v>196916.9441355962</v>
       </c>
     </row>
   </sheetData>
@@ -26716,10 +26716,10 @@
         <v>188.7343397316999</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="N2" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="O2" t="n">
         <v>220.7932495562064</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="F3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="G3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="H3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="I3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="J3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="K3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="L3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="M3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="N3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="O3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="P3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
     </row>
     <row r="4">
@@ -26917,7 +26917,7 @@
         <v>206.2999418260095</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>126.7628331851386</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.97150654656141</v>
+        <v>61.97150654656144</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>126.7628331851386</v>
       </c>
       <c r="M2" t="n">
-        <v>32.05890982450649</v>
+        <v>32.05890982450654</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656139</v>
+        <v>61.97150654656136</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123.4156654490505</v>
+        <v>123.4156654490504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>206.2999418260095</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>126.7628331851386</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.97150654656141</v>
+        <v>61.97150654656144</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28117,28 +28117,28 @@
         <v>206.2999418260095</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
         <v>206.2999418260095</v>
       </c>
-      <c r="M11" t="n">
-        <v>113.2746091047053</v>
-      </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>206.2999418260095</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
+        <v>154.1061328265928</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>206.2999418260095</v>
       </c>
-      <c r="Q11" t="n">
-        <v>163.1701443421163</v>
-      </c>
-      <c r="R11" t="n">
-        <v>110.6849561892633</v>
-      </c>
       <c r="S11" t="n">
-        <v>194.5590844816488</v>
+        <v>206.2999418260095</v>
       </c>
       <c r="T11" t="n">
         <v>206.2999418260095</v>
@@ -28190,25 +28190,25 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J12" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K12" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L12" t="n">
-        <v>77.45191162447881</v>
+        <v>166.8692821967349</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N12" t="n">
-        <v>148.4337894246074</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O12" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P12" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q12" t="n">
         <v>102.5964794769921</v>
@@ -28263,31 +28263,31 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H13" t="n">
-        <v>159.6553749464714</v>
+        <v>206.2999418260095</v>
       </c>
       <c r="I13" t="n">
         <v>147.0657759563305</v>
       </c>
       <c r="J13" t="n">
+        <v>108.0860501624724</v>
+      </c>
+      <c r="K13" t="n">
+        <v>54.56435274823428</v>
+      </c>
+      <c r="L13" t="n">
+        <v>98.42502178807993</v>
+      </c>
+      <c r="M13" t="n">
+        <v>123.333339508529</v>
+      </c>
+      <c r="N13" t="n">
+        <v>199.3293957180731</v>
+      </c>
+      <c r="O13" t="n">
+        <v>103.538292754451</v>
+      </c>
+      <c r="P13" t="n">
         <v>206.2999418260095</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>129.0816111059031</v>
@@ -28351,13 +28351,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>206.2999418260094</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>206.2999418260094</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>206.2999418260094</v>
@@ -28366,10 +28366,10 @@
         <v>206.2999418260094</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>206.2999418260094</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.1701443421163</v>
+        <v>206.2999418260094</v>
       </c>
       <c r="R14" t="n">
         <v>206.2999418260094</v>
@@ -28409,7 +28409,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>206.2999418260094</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -28421,31 +28421,31 @@
         <v>135.7577500944538</v>
       </c>
       <c r="H15" t="n">
-        <v>107.8987297172384</v>
+        <v>137.1285820381308</v>
       </c>
       <c r="I15" t="n">
-        <v>177.3119460366426</v>
+        <v>87.89457546438635</v>
       </c>
       <c r="J15" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K15" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L15" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N15" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O15" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P15" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q15" t="n">
         <v>102.5964794769921</v>
@@ -28497,40 +28497,40 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6670360907737</v>
+        <v>206.2999418260094</v>
       </c>
       <c r="H16" t="n">
-        <v>159.6553749464714</v>
+        <v>206.2999418260094</v>
       </c>
       <c r="I16" t="n">
         <v>147.0657759563305</v>
       </c>
       <c r="J16" t="n">
-        <v>108.0860501624724</v>
+        <v>73.10435918684017</v>
       </c>
       <c r="K16" t="n">
-        <v>92.45872460126397</v>
+        <v>123.6238958773892</v>
       </c>
       <c r="L16" t="n">
+        <v>98.42502178807993</v>
+      </c>
+      <c r="M16" t="n">
+        <v>86.63504720819792</v>
+      </c>
+      <c r="N16" t="n">
+        <v>90.43675181255537</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>107.3680496342441</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>129.0816111059031</v>
+      </c>
+      <c r="R16" t="n">
         <v>206.2999418260094</v>
-      </c>
-      <c r="M16" t="n">
-        <v>206.2999418260094</v>
-      </c>
-      <c r="N16" t="n">
-        <v>90.43675181255534</v>
-      </c>
-      <c r="O16" t="n">
-        <v>103.538292754451</v>
-      </c>
-      <c r="P16" t="n">
-        <v>107.368049634244</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>61.12493439304156</v>
-      </c>
-      <c r="R16" t="n">
-        <v>167.6866256988593</v>
       </c>
       <c r="S16" t="n">
         <v>206.2999418260094</v>
@@ -28585,28 +28585,28 @@
         <v>294.989384166709</v>
       </c>
       <c r="J17" t="n">
-        <v>243.3028517319761</v>
+        <v>134.4102078264585</v>
       </c>
       <c r="K17" t="n">
-        <v>151.4763064618625</v>
+        <v>174.3445446784201</v>
       </c>
       <c r="L17" t="n">
-        <v>151.5771083631706</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M17" t="n">
-        <v>137.4691413532519</v>
+        <v>246.3617852587697</v>
       </c>
       <c r="N17" t="n">
-        <v>135.1496335886351</v>
+        <v>135.1496335886352</v>
       </c>
       <c r="O17" t="n">
-        <v>140.7511784399488</v>
+        <v>249.6438223454665</v>
       </c>
       <c r="P17" t="n">
-        <v>154.1061328265927</v>
+        <v>154.1061328265928</v>
       </c>
       <c r="Q17" t="n">
-        <v>272.062788247634</v>
+        <v>163.1701443421163</v>
       </c>
       <c r="R17" t="n">
         <v>179.0300328571651</v>
@@ -28615,13 +28615,13 @@
         <v>194.5590844816488</v>
       </c>
       <c r="T17" t="n">
-        <v>320.7566371890341</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4380721062493</v>
+        <v>333.062775011148</v>
       </c>
       <c r="V17" t="n">
-        <v>333.062775011148</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>333.062775011148</v>
@@ -28664,25 +28664,25 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K18" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L18" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N18" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O18" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P18" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q18" t="n">
         <v>102.5964794769921</v>
@@ -28746,22 +28746,22 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K19" t="n">
-        <v>99.93133320088076</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L19" t="n">
-        <v>98.4250217880799</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M19" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N19" t="n">
-        <v>90.43675181255534</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O19" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P19" t="n">
-        <v>107.368049634244</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q19" t="n">
         <v>129.0816111059031</v>
@@ -28819,31 +28819,31 @@
         <v>333.062775011148</v>
       </c>
       <c r="I20" t="n">
-        <v>186.0967402611913</v>
+        <v>294.989384166709</v>
       </c>
       <c r="J20" t="n">
-        <v>134.4102078264584</v>
+        <v>134.4102078264585</v>
       </c>
       <c r="K20" t="n">
-        <v>169.8149911897915</v>
+        <v>151.4763064618625</v>
       </c>
       <c r="L20" t="n">
-        <v>151.5771083631706</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M20" t="n">
-        <v>246.3617852587696</v>
+        <v>246.3617852587697</v>
       </c>
       <c r="N20" t="n">
-        <v>244.0422774941528</v>
+        <v>153.4883183165642</v>
       </c>
       <c r="O20" t="n">
         <v>140.7511784399488</v>
       </c>
       <c r="P20" t="n">
-        <v>154.1061328265927</v>
+        <v>154.1061328265928</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.1701443421163</v>
+        <v>272.062788247634</v>
       </c>
       <c r="R20" t="n">
         <v>179.0300328571651</v>
@@ -28852,7 +28852,7 @@
         <v>194.5590844816488</v>
       </c>
       <c r="T20" t="n">
-        <v>329.6858934617242</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U20" t="n">
         <v>333.062775011148</v>
@@ -28901,25 +28901,25 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J21" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K21" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L21" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N21" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O21" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P21" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q21" t="n">
         <v>102.5964794769921</v>
@@ -28983,22 +28983,22 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K22" t="n">
-        <v>99.93133320088076</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L22" t="n">
-        <v>98.4250217880799</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M22" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N22" t="n">
-        <v>90.43675181255534</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O22" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P22" t="n">
-        <v>107.368049634244</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q22" t="n">
         <v>129.0816111059031</v>
@@ -29059,37 +29059,37 @@
         <v>186.0967402611913</v>
       </c>
       <c r="J23" t="n">
-        <v>134.4102078264584</v>
+        <v>238.9031489479149</v>
       </c>
       <c r="K23" t="n">
         <v>151.4763064618625</v>
       </c>
       <c r="L23" t="n">
-        <v>151.5771083631706</v>
+        <v>151.5771083631707</v>
       </c>
       <c r="M23" t="n">
-        <v>137.4691413532519</v>
+        <v>246.3617852587697</v>
       </c>
       <c r="N23" t="n">
-        <v>239.6425747100915</v>
+        <v>135.1496335886352</v>
       </c>
       <c r="O23" t="n">
-        <v>249.6438223454665</v>
+        <v>140.7511784399488</v>
       </c>
       <c r="P23" t="n">
-        <v>154.1061328265927</v>
+        <v>262.9987767321105</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.1701443421163</v>
+        <v>272.062788247634</v>
       </c>
       <c r="R23" t="n">
         <v>179.0300328571651</v>
       </c>
       <c r="S23" t="n">
-        <v>303.4517283871666</v>
+        <v>194.5590844816488</v>
       </c>
       <c r="T23" t="n">
-        <v>329.6858934617242</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="U23" t="n">
         <v>251.4380721062493</v>
@@ -29138,25 +29138,25 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J24" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K24" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L24" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N24" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O24" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P24" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q24" t="n">
         <v>102.5964794769921</v>
@@ -29220,22 +29220,22 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K25" t="n">
-        <v>99.93133320088076</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L25" t="n">
-        <v>98.4250217880799</v>
+        <v>98.42502178807993</v>
       </c>
       <c r="M25" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N25" t="n">
-        <v>90.43675181255534</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O25" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P25" t="n">
-        <v>107.368049634244</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q25" t="n">
         <v>129.0816111059031</v>
@@ -29293,22 +29293,22 @@
         <v>188.7343397316999</v>
       </c>
       <c r="I26" t="n">
-        <v>186.0967402611913</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="J26" t="n">
-        <v>134.4102078264584</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K26" t="n">
+        <v>162.6465092346247</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>188.7343397316999</v>
       </c>
-      <c r="L26" t="n">
-        <v>19.13238940234339</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>188.7343397316999</v>
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.1701443421163</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R26" t="n">
         <v>188.7343397316999</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.7343397316999</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>188.7343397316999</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -29366,40 +29366,40 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>172.161226195381</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H27" t="n">
-        <v>188.7343397316999</v>
+        <v>182.3214154732067</v>
       </c>
       <c r="I27" t="n">
         <v>87.89457546438635</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L27" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O27" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>79.93380909387048</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S27" t="n">
         <v>164.0308087813356</v>
@@ -29442,10 +29442,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>188.7343397316999</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>188.7343397316999</v>
+        <v>167.6670360907737</v>
       </c>
       <c r="H28" t="n">
         <v>159.6553749464714</v>
@@ -29454,28 +29454,28 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J28" t="n">
-        <v>73.10435918684016</v>
+        <v>108.0860501624724</v>
       </c>
       <c r="K28" t="n">
-        <v>71.68153676079461</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>145.0424948180437</v>
       </c>
       <c r="M28" t="n">
-        <v>100.5664701794399</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>90.43675181255534</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="O28" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>188.7343397316999</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.12493439304156</v>
+        <v>61.12493439304157</v>
       </c>
       <c r="R28" t="n">
         <v>163.3843627302577</v>
@@ -29530,19 +29530,19 @@
         <v>188.7343397316999</v>
       </c>
       <c r="I29" t="n">
-        <v>188.7343397316999</v>
+        <v>186.0967402611913</v>
       </c>
       <c r="J29" t="n">
         <v>188.7343397316999</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
         <v>188.7343397316999</v>
-      </c>
-      <c r="L29" t="n">
-        <v>174.3928017974729</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>188.7343397316999</v>
@@ -29551,13 +29551,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>154.1061328265928</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="R29" t="n">
-        <v>179.0300328571651</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="S29" t="n">
         <v>188.7343397316999</v>
@@ -29609,34 +29609,34 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I30" t="n">
-        <v>77.36379842985802</v>
+        <v>87.89457546438635</v>
       </c>
       <c r="J30" t="n">
-        <v>98.58652704303779</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K30" t="n">
-        <v>188.7343397316999</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L30" t="n">
-        <v>77.45191162447881</v>
+        <v>170.527315329615</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N30" t="n">
-        <v>59.01641885235144</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.5964794769921</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S30" t="n">
         <v>164.0308087813356</v>
@@ -29670,7 +29670,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29691,28 +29691,28 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J31" t="n">
-        <v>73.10435918684016</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="K31" t="n">
+        <v>66.36171482850528</v>
+      </c>
+      <c r="L31" t="n">
+        <v>98.42502178807993</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>188.7343397316999</v>
       </c>
-      <c r="L31" t="n">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>188.7343397316999</v>
       </c>
-      <c r="M31" t="n">
-        <v>188.7343397316999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>166.1955862432033</v>
-      </c>
-      <c r="O31" t="n">
-        <v>103.538292754451</v>
-      </c>
-      <c r="P31" t="n">
-        <v>107.368049634244</v>
-      </c>
       <c r="Q31" t="n">
-        <v>188.7343397316999</v>
+        <v>62.04146894784491</v>
       </c>
       <c r="R31" t="n">
         <v>163.3843627302577</v>
@@ -29773,28 +29773,28 @@
         <v>188.7343397316999</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>188.7343397316999</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>188.7343397316999</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>54.41220177214861</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>188.7343397316999</v>
       </c>
-      <c r="Q32" t="n">
-        <v>183.7203514050199</v>
-      </c>
       <c r="R32" t="n">
-        <v>110.6849561892633</v>
+        <v>179.0300328571651</v>
       </c>
       <c r="S32" t="n">
         <v>188.7343397316999</v>
@@ -29831,7 +29831,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -29852,28 +29852,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L33" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M33" t="n">
-        <v>168.4045015433255</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O33" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P33" t="n">
-        <v>79.93380909387048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.7343397316999</v>
+        <v>102.5964794769921</v>
       </c>
       <c r="R33" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S33" t="n">
         <v>164.0308087813356</v>
@@ -29907,7 +29907,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29928,28 +29928,28 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J34" t="n">
-        <v>108.0860501624724</v>
+        <v>73.10435918684017</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>188.7343397316999</v>
       </c>
       <c r="L34" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>188.7343397316999</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>103.9179162381024</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O34" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P34" t="n">
-        <v>107.368049634244</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.12493439304156</v>
+        <v>167.8038893755713</v>
       </c>
       <c r="R34" t="n">
         <v>163.3843627302577</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="C35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="D35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="E35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="F35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="G35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="H35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="I35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="J35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="L35" t="n">
-        <v>152.4324606812412</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>220.7932495562064</v>
+        <v>103.8213408801952</v>
       </c>
       <c r="N35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="O35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="P35" t="n">
-        <v>220.7932495562064</v>
+        <v>139.1409877600964</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="R35" t="n">
-        <v>179.0300328571651</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="S35" t="n">
-        <v>194.5590844816488</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
     </row>
     <row r="36">
@@ -30086,46 +30086,46 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J36" t="n">
-        <v>143.6411558638493</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K36" t="n">
-        <v>91.5294166336067</v>
+        <v>113.1033372730117</v>
       </c>
       <c r="L36" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N36" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O36" t="n">
-        <v>75.87162509168576</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P36" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q36" t="n">
         <v>102.5964794769921</v>
       </c>
       <c r="R36" t="n">
-        <v>78.21316692998971</v>
+        <v>125.5557035337634</v>
       </c>
       <c r="S36" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3125413748</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U36" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V36" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W36" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -30144,7 +30144,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>220.7932495562064</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -30165,7 +30165,7 @@
         <v>147.0657759563305</v>
       </c>
       <c r="J37" t="n">
-        <v>112.5728931650638</v>
+        <v>73.10435918684017</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,40 +30174,40 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>90.43675181255537</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="P37" t="n">
-        <v>107.368049634244</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R37" t="n">
-        <v>163.3843627302577</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="S37" t="n">
         <v>218.4789179341138</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U37" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V37" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W37" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X37" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="C38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="D38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="E38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="F38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="G38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="H38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="I38" t="n">
-        <v>186.0967402611913</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="J38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="K38" t="n">
-        <v>220.7932495562064</v>
+        <v>91.04829235908537</v>
       </c>
       <c r="L38" t="n">
-        <v>151.0557195901912</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="M38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="P38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Q38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="R38" t="n">
-        <v>150.4791892827137</v>
+        <v>110.6849561892634</v>
       </c>
       <c r="S38" t="n">
-        <v>194.5590844816488</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
     </row>
     <row r="39">
@@ -30320,49 +30320,49 @@
         <v>107.8987297172384</v>
       </c>
       <c r="I39" t="n">
-        <v>87.89457546438635</v>
+        <v>77.36379842985802</v>
       </c>
       <c r="J39" t="n">
-        <v>120.160447682443</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L39" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31914540423536</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N39" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O39" t="n">
-        <v>75.87162509168576</v>
+        <v>120.9262539124972</v>
       </c>
       <c r="P39" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q39" t="n">
         <v>102.5964794769921</v>
       </c>
       <c r="R39" t="n">
-        <v>125.5557035337634</v>
+        <v>78.21316692998973</v>
       </c>
       <c r="S39" t="n">
         <v>164.0308087813356</v>
       </c>
       <c r="T39" t="n">
-        <v>220.7932495562064</v>
+        <v>197.3125413748</v>
       </c>
       <c r="U39" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V39" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W39" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -30399,52 +30399,52 @@
         <v>159.6553749464714</v>
       </c>
       <c r="I40" t="n">
-        <v>202.867867192566</v>
+        <v>147.0657759563305</v>
       </c>
       <c r="J40" t="n">
         <v>108.0860501624724</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="L40" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N40" t="n">
-        <v>90.43675181255534</v>
+        <v>145.4308228394987</v>
       </c>
       <c r="O40" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P40" t="n">
-        <v>107.368049634244</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R40" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S40" t="n">
-        <v>218.4789179341138</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="U40" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="V40" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="W40" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="X40" t="n">
-        <v>220.7932495562064</v>
+        <v>220.7932495562065</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30487,16 +30487,16 @@
         <v>220.7932495562064</v>
       </c>
       <c r="L41" t="n">
-        <v>220.7932495562064</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>220.7932495562064</v>
       </c>
       <c r="N41" t="n">
+        <v>137.4167412155331</v>
+      </c>
+      <c r="O41" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="O41" t="n">
-        <v>56.86773267223929</v>
       </c>
       <c r="P41" t="n">
         <v>220.7932495562064</v>
@@ -30505,7 +30505,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="R41" t="n">
-        <v>110.6849561892633</v>
+        <v>110.6849561892634</v>
       </c>
       <c r="S41" t="n">
         <v>194.5590844816488</v>
@@ -30551,34 +30551,34 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>180.8123789152654</v>
+        <v>135.7577500944538</v>
       </c>
       <c r="H42" t="n">
         <v>107.8987297172384</v>
       </c>
       <c r="I42" t="n">
-        <v>87.89457546438635</v>
+        <v>132.949204285198</v>
       </c>
       <c r="J42" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K42" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>71.31914540423541</v>
       </c>
       <c r="N42" t="n">
-        <v>59.01641885235144</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O42" t="n">
-        <v>75.87162509168576</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>79.93380909387048</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q42" t="n">
         <v>102.5964794769921</v>
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>220.7932495562064</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30633,40 +30633,40 @@
         <v>167.6670360907737</v>
       </c>
       <c r="H43" t="n">
-        <v>159.6553749464714</v>
+        <v>207.4691962071825</v>
       </c>
       <c r="I43" t="n">
         <v>147.0657759563305</v>
       </c>
       <c r="J43" t="n">
-        <v>108.0860501624724</v>
+        <v>73.10435918684017</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L43" t="n">
-        <v>98.4250217880799</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>100.5664701794399</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="O43" t="n">
         <v>103.538292754451</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.3680496342441</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.12493439304156</v>
+        <v>129.0816111059031</v>
       </c>
       <c r="R43" t="n">
         <v>163.3843627302577</v>
       </c>
       <c r="S43" t="n">
-        <v>220.7932495562064</v>
+        <v>218.4789179341138</v>
       </c>
       <c r="T43" t="n">
         <v>220.7932495562064</v>
@@ -30715,7 +30715,7 @@
         <v>220.7932495562064</v>
       </c>
       <c r="I44" t="n">
-        <v>186.0967402611913</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="J44" t="n">
         <v>220.7932495562064</v>
@@ -30730,19 +30730,19 @@
         <v>220.7932495562064</v>
       </c>
       <c r="N44" t="n">
+        <v>15.875632760185</v>
+      </c>
+      <c r="O44" t="n">
+        <v>178.5652642861827</v>
+      </c>
+      <c r="P44" t="n">
+        <v>154.1061328265928</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>163.1701443421163</v>
+      </c>
+      <c r="R44" t="n">
         <v>220.7932495562064</v>
-      </c>
-      <c r="O44" t="n">
-        <v>220.7932495562064</v>
-      </c>
-      <c r="P44" t="n">
-        <v>220.7932495562064</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>110.6849561892633</v>
       </c>
       <c r="S44" t="n">
         <v>220.7932495562064</v>
@@ -30797,25 +30797,25 @@
         <v>87.89457546438635</v>
       </c>
       <c r="J45" t="n">
-        <v>98.58652704303779</v>
+        <v>98.58652704303782</v>
       </c>
       <c r="K45" t="n">
-        <v>91.5294166336067</v>
+        <v>91.52941663360673</v>
       </c>
       <c r="L45" t="n">
-        <v>77.45191162447881</v>
+        <v>77.45191162447887</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31914540423536</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>34.76123418266168</v>
+        <v>59.01641885235149</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>75.8716250916858</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.93380909387052</v>
       </c>
       <c r="Q45" t="n">
         <v>102.5964794769921</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>220.7932495562064</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30879,25 +30879,25 @@
         <v>108.0860501624724</v>
       </c>
       <c r="K46" t="n">
-        <v>99.93133320088076</v>
+        <v>99.93133320088077</v>
       </c>
       <c r="L46" t="n">
-        <v>98.4250217880799</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>220.7932495562064</v>
       </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
-        <v>103.538292754451</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>114.4723128294324</v>
       </c>
       <c r="Q46" t="n">
-        <v>187.0251507334985</v>
+        <v>61.12493439304157</v>
       </c>
       <c r="R46" t="n">
         <v>163.3843627302577</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H11" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I11" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J11" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K11" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L11" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M11" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N11" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O11" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P11" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R11" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S11" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T11" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H12" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I12" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J12" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K12" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L12" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M12" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N12" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O12" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P12" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R12" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S12" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T12" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H13" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I13" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J13" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K13" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L13" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M13" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N13" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O13" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P13" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R13" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S13" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H14" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I14" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J14" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K14" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L14" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M14" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N14" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O14" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P14" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R14" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S14" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T14" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H15" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I15" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J15" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K15" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L15" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M15" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N15" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O15" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P15" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R15" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S15" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T15" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H16" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I16" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J16" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K16" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L16" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M16" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N16" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O16" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P16" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R16" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S16" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H17" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I17" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J17" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K17" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L17" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M17" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N17" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O17" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P17" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R17" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S17" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T17" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H18" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I18" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J18" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K18" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L18" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M18" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N18" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O18" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P18" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R18" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S18" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T18" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H19" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I19" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J19" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K19" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L19" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M19" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N19" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O19" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P19" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R19" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S19" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H20" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I20" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J20" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K20" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L20" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M20" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N20" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O20" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P20" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R20" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S20" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T20" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H21" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I21" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J21" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K21" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L21" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M21" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N21" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O21" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P21" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R21" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S21" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T21" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H22" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I22" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J22" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K22" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L22" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M22" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N22" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O22" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P22" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R22" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S22" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H23" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I23" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J23" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K23" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L23" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M23" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N23" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O23" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P23" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R23" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S23" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T23" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H24" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I24" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J24" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K24" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L24" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M24" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N24" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O24" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P24" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R24" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S24" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T24" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H25" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I25" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J25" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K25" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L25" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M25" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N25" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O25" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P25" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R25" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S25" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H26" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I26" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J26" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K26" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L26" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M26" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N26" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O26" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P26" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R26" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S26" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T26" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H27" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I27" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J27" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K27" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L27" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M27" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N27" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O27" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P27" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R27" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S27" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T27" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H28" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I28" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J28" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K28" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L28" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M28" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N28" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O28" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P28" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R28" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S28" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H29" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I29" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J29" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K29" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L29" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M29" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N29" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O29" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P29" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R29" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S29" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T29" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H30" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I30" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J30" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K30" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L30" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M30" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N30" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O30" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P30" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R30" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S30" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T30" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H31" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I31" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J31" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K31" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L31" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M31" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N31" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O31" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P31" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R31" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S31" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H32" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I32" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J32" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K32" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L32" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M32" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N32" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O32" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P32" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R32" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S32" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T32" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H33" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I33" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J33" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K33" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L33" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M33" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N33" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O33" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P33" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R33" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S33" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T33" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H34" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I34" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J34" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K34" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L34" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M34" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N34" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O34" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P34" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R34" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S34" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H35" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I35" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J35" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K35" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L35" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M35" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N35" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O35" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P35" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R35" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S35" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T35" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H36" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I36" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J36" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K36" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L36" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M36" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N36" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O36" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P36" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R36" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S36" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T36" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H37" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I37" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J37" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K37" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L37" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M37" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N37" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O37" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P37" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R37" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S37" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H38" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I38" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J38" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K38" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L38" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M38" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N38" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O38" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P38" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R38" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S38" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T38" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H39" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I39" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J39" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K39" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L39" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M39" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N39" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O39" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P39" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R39" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S39" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T39" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H40" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I40" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J40" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K40" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L40" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M40" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N40" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O40" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P40" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R40" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S40" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H41" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I41" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J41" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K41" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L41" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M41" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N41" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O41" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P41" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R41" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S41" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T41" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H42" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I42" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J42" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K42" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L42" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M42" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N42" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O42" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P42" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R42" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S42" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T42" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H43" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I43" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J43" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K43" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L43" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M43" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N43" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O43" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P43" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R43" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S43" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4961433786896498</v>
+        <v>0.4961433786896494</v>
       </c>
       <c r="H44" t="n">
-        <v>5.081128377005377</v>
+        <v>5.081128377005373</v>
       </c>
       <c r="I44" t="n">
-        <v>19.12756760693274</v>
+        <v>19.12756760693273</v>
       </c>
       <c r="J44" t="n">
-        <v>42.1095490870607</v>
+        <v>42.10954908706067</v>
       </c>
       <c r="K44" t="n">
-        <v>63.11129830699359</v>
+        <v>63.11129830699354</v>
       </c>
       <c r="L44" t="n">
-        <v>78.29514623256698</v>
+        <v>78.29514623256691</v>
       </c>
       <c r="M44" t="n">
-        <v>87.11843604333903</v>
+        <v>87.11843604333896</v>
       </c>
       <c r="N44" t="n">
-        <v>88.52810341804101</v>
+        <v>88.52810341804094</v>
       </c>
       <c r="O44" t="n">
-        <v>83.5945776961958</v>
+        <v>83.59457769619573</v>
       </c>
       <c r="P44" t="n">
-        <v>71.34603803479506</v>
+        <v>71.346038034795</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.57790328547195</v>
+        <v>53.57790328547191</v>
       </c>
       <c r="R44" t="n">
-        <v>31.16586651161374</v>
+        <v>31.16586651161372</v>
       </c>
       <c r="S44" t="n">
-        <v>11.30586724189041</v>
+        <v>11.3058672418904</v>
       </c>
       <c r="T44" t="n">
-        <v>2.171867640213943</v>
+        <v>2.171867640213941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03969147029517198</v>
+        <v>0.03969147029517194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2654601105885237</v>
+        <v>0.2654601105885235</v>
       </c>
       <c r="H45" t="n">
-        <v>2.563785804894426</v>
+        <v>2.563785804894424</v>
       </c>
       <c r="I45" t="n">
-        <v>9.139745035613645</v>
+        <v>9.139745035613638</v>
       </c>
       <c r="J45" t="n">
-        <v>25.08015895696223</v>
+        <v>25.08015895696222</v>
       </c>
       <c r="K45" t="n">
-        <v>42.86598636639332</v>
+        <v>42.86598636639329</v>
       </c>
       <c r="L45" t="n">
-        <v>57.63860866089853</v>
+        <v>57.63860866089849</v>
       </c>
       <c r="M45" t="n">
-        <v>67.2615376697325</v>
+        <v>67.26153766973245</v>
       </c>
       <c r="N45" t="n">
-        <v>69.04175042889854</v>
+        <v>69.04175042889848</v>
       </c>
       <c r="O45" t="n">
-        <v>63.15971324164756</v>
+        <v>63.15971324164751</v>
       </c>
       <c r="P45" t="n">
-        <v>50.69123813510151</v>
+        <v>50.69123813510147</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.88575025687892</v>
+        <v>33.88575025687889</v>
       </c>
       <c r="R45" t="n">
-        <v>16.4818128311015</v>
+        <v>16.48181283110149</v>
       </c>
       <c r="S45" t="n">
-        <v>4.930805124308759</v>
+        <v>4.930805124308755</v>
       </c>
       <c r="T45" t="n">
-        <v>1.069990533468654</v>
+        <v>1.069990533468653</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0174644809597713</v>
+        <v>0.01746448095977129</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2225528393343533</v>
+        <v>0.2225528393343531</v>
       </c>
       <c r="H46" t="n">
-        <v>1.978697062445433</v>
+        <v>1.978697062445432</v>
       </c>
       <c r="I46" t="n">
-        <v>6.692770841073099</v>
+        <v>6.692770841073094</v>
       </c>
       <c r="J46" t="n">
-        <v>15.73448574093878</v>
+        <v>15.73448574093876</v>
       </c>
       <c r="K46" t="n">
-        <v>25.85659351539122</v>
+        <v>25.8565935153912</v>
       </c>
       <c r="L46" t="n">
-        <v>33.0875375861274</v>
+        <v>33.08753758612738</v>
       </c>
       <c r="M46" t="n">
-        <v>34.88616916947503</v>
+        <v>34.886169169475</v>
       </c>
       <c r="N46" t="n">
-        <v>34.05665404104702</v>
+        <v>34.05665404104699</v>
       </c>
       <c r="O46" t="n">
-        <v>31.4568322360957</v>
+        <v>31.45683223609567</v>
       </c>
       <c r="P46" t="n">
-        <v>26.91675431367486</v>
+        <v>26.91675431367484</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.63576548280662</v>
+        <v>18.63576548280661</v>
       </c>
       <c r="R46" t="n">
-        <v>10.00678493952465</v>
+        <v>10.00678493952464</v>
       </c>
       <c r="S46" t="n">
-        <v>3.878489027308683</v>
+        <v>3.87848902730868</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9509075862467821</v>
+        <v>0.9509075862467813</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01213924578187383</v>
+        <v>0.01213924578187382</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>20.20320156481826</v>
+        <v>20.20320156481821</v>
       </c>
       <c r="J11" t="n">
+        <v>71.88973399955104</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.823635364147</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>78.71344574658605</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="K11" t="n">
-        <v>108.8926439055177</v>
-      </c>
-      <c r="L11" t="n">
-        <v>54.72283346283895</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>86.26574099990009</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>52.19380899941679</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>57.63744594418453</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.26990896884441</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>11.74085734436066</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>89.417370572256</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>89.41737057225592</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35559,31 +35559,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>46.6445668795381</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>98.21389166353711</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.08218379755787</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>70.5486678151367</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>64.35245281731972</v>
+        <v>22.76686932908904</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>33.03877621235871</v>
+        <v>98.93189219176544</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20.20320156481814</v>
+        <v>20.20320156481813</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.82363536414697</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>54.72283346283876</v>
       </c>
       <c r="M14" t="n">
-        <v>68.83080047275753</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>71.15030823737428</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="O14" t="n">
-        <v>108.807084217806</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>52.19380899941662</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>43.12979748389308</v>
       </c>
       <c r="R14" t="n">
-        <v>95.61498563674608</v>
+        <v>31.39508617164693</v>
       </c>
       <c r="S14" t="n">
-        <v>11.74085734436059</v>
+        <v>11.74085734436058</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35705,7 +35705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>60.18751825136385</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -35717,10 +35717,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>29.2298523208924</v>
       </c>
       <c r="I15" t="n">
-        <v>89.41737057225626</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35793,10 +35793,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.63290573523571</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>46.64456687953802</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>23.69256267650844</v>
       </c>
       <c r="L16" t="n">
-        <v>107.8749200379295</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>105.7334716465695</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>66.02504026606672</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.302262968601634</v>
+        <v>42.91557909575175</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>108.8926439055177</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>22.86823821655762</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>99.96338763282772</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>81.62470290489875</v>
       </c>
       <c r="V17" t="n">
-        <v>4.529553488628665</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>18.338684727929</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36130,17 +36130,17 @@
         <v>108.8926439055177</v>
       </c>
       <c r="N20" t="n">
+        <v>18.33868472792899</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -36148,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>81.62470290489875</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>104.4929411214564</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36364,28 +36364,28 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="N23" t="n">
-        <v>104.4929411214564</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>108.8926439055177</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>108.8926439055177</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>108.8926439055177</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.637599470508658</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K26" t="n">
-        <v>374.3692623438488</v>
+        <v>348.2814318467736</v>
       </c>
       <c r="L26" t="n">
-        <v>301.9229441716412</v>
+        <v>176.5038896834789</v>
       </c>
       <c r="M26" t="n">
-        <v>330.024933479294</v>
+        <v>518.7592732109938</v>
       </c>
       <c r="N26" t="n">
-        <v>508.4255075315283</v>
+        <v>319.6911677998283</v>
       </c>
       <c r="O26" t="n">
-        <v>444.0153498050063</v>
+        <v>47.98316129175112</v>
       </c>
       <c r="P26" t="n">
         <v>180.5645236717492</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>246.3717856758845</v>
       </c>
       <c r="R26" t="n">
-        <v>9.704306874534822</v>
+        <v>78.04938354243659</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36647,13 +36647,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23.36221412135507</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>42.62191615705433</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36662,10 +36662,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>36.40347610092721</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>80.83561001446154</v>
+        <v>74.42268575596839</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>108.8005306378294</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36738,10 +36738,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>42.5753183218954</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>21.06730364092618</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.923465025100476</v>
+        <v>88.80300653081918</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>215.5911626331804</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>98.29758791914458</v>
       </c>
       <c r="O28" t="n">
-        <v>254.7593799977666</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>81.36629009745585</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.637599470508675</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>230.1846116841982</v>
       </c>
       <c r="K29" t="n">
-        <v>374.3692623438488</v>
+        <v>97.50977805785901</v>
       </c>
       <c r="L29" t="n">
-        <v>209.9019336789847</v>
+        <v>282.7905547692977</v>
       </c>
       <c r="M29" t="n">
-        <v>330.024933479294</v>
+        <v>518.7592732109938</v>
       </c>
       <c r="N29" t="n">
-        <v>508.4255075315283</v>
+        <v>508.4255075315282</v>
       </c>
       <c r="O29" t="n">
-        <v>255.2810100733064</v>
+        <v>255.2810100733063</v>
       </c>
       <c r="P29" t="n">
-        <v>180.5645236717492</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.63744594418457</v>
+        <v>246.3717856758844</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9.704306874534797</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.14781268866207</v>
       </c>
       <c r="K30" t="n">
-        <v>97.20492309809325</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>93.07540370513608</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>86.01829329570457</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>21.39778680049756</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>115.6299805448597</v>
       </c>
       <c r="K31" t="n">
-        <v>88.80300653081919</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.30931794362004</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>88.16786955226007</v>
+        <v>85.08357716638358</v>
       </c>
       <c r="N31" t="n">
-        <v>75.75883443064798</v>
+        <v>98.29758791914452</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>81.36629009745583</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.65272862579687</v>
+        <v>0.9165345548033408</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.637599470508647</v>
+        <v>2.637599470508629</v>
       </c>
       <c r="J32" t="n">
-        <v>54.32413190524149</v>
+        <v>230.1846116841982</v>
       </c>
       <c r="K32" t="n">
-        <v>374.3692623438488</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>282.7905547692978</v>
+        <v>471.5248945009977</v>
       </c>
       <c r="M32" t="n">
         <v>518.7592732109938</v>
       </c>
       <c r="N32" t="n">
-        <v>50.20833535175191</v>
+        <v>54.96878985826436</v>
       </c>
       <c r="O32" t="n">
-        <v>255.2810100733064</v>
+        <v>444.0153498050063</v>
       </c>
       <c r="P32" t="n">
-        <v>369.2988634034492</v>
+        <v>180.5645236717492</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.3577973492044</v>
+        <v>246.3717856758844</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37127,7 +37127,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>42.62191615705436</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>97.08535613909012</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>140.6013002367436</v>
       </c>
       <c r="Q33" t="n">
-        <v>86.13786025470786</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.39778680049758</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>199.8165235292578</v>
       </c>
       <c r="L34" t="n">
-        <v>259.2830075468366</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>88.16786955226004</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>13.48116442554703</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>33.03877621235868</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>106.6789549825297</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.69650929501513</v>
+        <v>34.69650929501518</v>
       </c>
       <c r="J35" t="n">
-        <v>86.38304172974797</v>
+        <v>262.2435215087047</v>
       </c>
       <c r="K35" t="n">
-        <v>185.6349226121489</v>
+        <v>69.31694309434397</v>
       </c>
       <c r="L35" t="n">
-        <v>115.0070122507439</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>83.32410820295452</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="N35" t="n">
-        <v>433.8462743594891</v>
+        <v>85.64361596757125</v>
       </c>
       <c r="O35" t="n">
-        <v>433.8462743594891</v>
+        <v>417.3359368725771</v>
       </c>
       <c r="P35" t="n">
-        <v>66.68711672961366</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>278.430695500391</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>110.1082933669431</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.23416507455762</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>45.05462882081155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>21.57392063940494</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>23.48070818140644</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>53.45669662500407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.48684300259137</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>120.2267793767665</v>
+        <v>3.506475376657468</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>117.2549568017554</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.4088868259488</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,25 +37537,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.69650929501518</v>
       </c>
       <c r="J38" t="n">
         <v>262.2435215087047</v>
       </c>
       <c r="K38" t="n">
-        <v>69.31694309434396</v>
+        <v>101.8293270960752</v>
       </c>
       <c r="L38" t="n">
         <v>433.8462743594891</v>
       </c>
       <c r="M38" t="n">
-        <v>83.32410820295452</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="N38" t="n">
-        <v>319.6911677998283</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>204.316127844268</v>
+        <v>80.04207111625763</v>
       </c>
       <c r="P38" t="n">
         <v>66.68711672961366</v>
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.23416507455762</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>21.57392063940517</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>45.05462882081138</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>23.48070818140638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37695,22 +37695,22 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>55.80209123623546</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>120.8619163553257</v>
       </c>
       <c r="L40" t="n">
-        <v>122.3682277681265</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>54.99407102694338</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.314331622092615</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.6965092950151</v>
+        <v>34.69650929501509</v>
       </c>
       <c r="J41" t="n">
-        <v>86.38304172974794</v>
+        <v>262.2435215087046</v>
       </c>
       <c r="K41" t="n">
-        <v>69.31694309434393</v>
+        <v>406.4281721683553</v>
       </c>
       <c r="L41" t="n">
-        <v>239.1594571704513</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>83.32410820295449</v>
+        <v>433.8462743594891</v>
       </c>
       <c r="N41" t="n">
-        <v>433.8462743594891</v>
+        <v>155.4815943617667</v>
       </c>
       <c r="O41" t="n">
-        <v>312.1487427455457</v>
+        <v>80.04207111625755</v>
       </c>
       <c r="P41" t="n">
-        <v>401.3577732279556</v>
+        <v>66.68711672961358</v>
       </c>
       <c r="Q41" t="n">
-        <v>57.62310521409008</v>
+        <v>278.4306955003909</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37847,13 +37847,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>45.05462882081164</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>71.78768304168702</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.81382126071111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25367370568492</v>
+        <v>130.356497743651</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>15.81463063489766</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.314331622092533</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.69650929501512</v>
       </c>
       <c r="J44" t="n">
-        <v>262.2435215087047</v>
+        <v>262.2435215087046</v>
       </c>
       <c r="K44" t="n">
-        <v>298.3529095611399</v>
+        <v>406.4281721683553</v>
       </c>
       <c r="L44" t="n">
-        <v>69.21614119303582</v>
+        <v>360.9749110635742</v>
       </c>
       <c r="M44" t="n">
-        <v>83.32410820295452</v>
+        <v>83.32410820295445</v>
       </c>
       <c r="N44" t="n">
-        <v>85.64361596757126</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>433.8462743594891</v>
       </c>
       <c r="P44" t="n">
-        <v>401.3577732279556</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>57.63744594418457</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>110.108293366943</v>
       </c>
       <c r="S44" t="n">
         <v>26.23416507455757</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.7095580655226</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>120.2267793767665</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.356497743651</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>7.104263195188338</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.94353962759544</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
